--- a/multicore_novo.xlsx
+++ b/multicore_novo.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melis\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADD1EDC-2F60-41E0-961D-025B59C7D8FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80704B3-ADE1-4492-A7C7-6FDE686A4508}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-1305" windowWidth="24240" windowHeight="13290" tabRatio="483" xr2:uid="{7C13D048-D369-4CF7-941B-2AB5863FD600}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
-    <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
-    <sheet name="Planilha4" sheetId="4" r:id="rId4"/>
-    <sheet name="Planilha5" sheetId="5" r:id="rId5"/>
+    <sheet name="Planilha3" sheetId="3" r:id="rId2"/>
+    <sheet name="Planilha4" sheetId="4" r:id="rId3"/>
+    <sheet name="Planilha5" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>clocks</t>
   </si>
@@ -67,12 +66,6 @@
     <t>t IN starts [ns]</t>
   </si>
   <si>
-    <t>EL</t>
-  </si>
-  <si>
-    <t>MULT</t>
-  </si>
-  <si>
     <t>Processadores</t>
   </si>
   <si>
@@ -90,12 +83,30 @@
   <si>
     <t>Multiplicadores</t>
   </si>
+  <si>
+    <t>NOVO Tempo de Atraso</t>
+  </si>
+  <si>
+    <t>janela entre ins</t>
+  </si>
+  <si>
+    <t>1 proc</t>
+  </si>
+  <si>
+    <t>Memoria</t>
+  </si>
+  <si>
+    <t>Diferença</t>
+  </si>
+  <si>
+    <t>Antigo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +136,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -146,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -174,6 +200,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -346,70 +389,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>139</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>111</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>37</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>30</c:v>
-                </c:pt>
                 <c:pt idx="16">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -450,7 +493,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="12700" cap="rnd">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -556,70 +599,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>375.39375000000001</c:v>
+                  <c:v>373.5625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>299.78500000000003</c:v>
+                  <c:v>302.48500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>251.19926100000001</c:v>
+                  <c:v>253.89947700000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>216.10957199999999</c:v>
+                  <c:v>218.81000399999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>189.07187500000001</c:v>
+                  <c:v>191.77187499999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>167.48284200000001</c:v>
+                  <c:v>170.18305800000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>151.26750000000001</c:v>
+                  <c:v>153.9675</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>137.78244100000001</c:v>
+                  <c:v>140.48276499999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>127.00521200000001</c:v>
+                  <c:v>129.70607600000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>116.21921999999999</c:v>
+                  <c:v>118.92051599999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>108.07978999999999</c:v>
+                  <c:v>110.78022199999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>99.981658999999993</c:v>
+                  <c:v>102.68219900000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>94.591196999999994</c:v>
+                  <c:v>97.292061000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>89.185258999999988</c:v>
+                  <c:v>91.886015</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>83.766422999999989</c:v>
+                  <c:v>86.466639000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>81.072179999999989</c:v>
+                  <c:v>83.772611999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>75.658749999999998</c:v>
+                  <c:v>78.358750000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>72.990434999999991</c:v>
+                  <c:v>75.691622999999993</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>70.297298999999995</c:v>
+                  <c:v>72.998811000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>67.560311000000013</c:v>
+                  <c:v>70.260419000000013</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>64.878045999999998</c:v>
+                  <c:v>67.578910000000008</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>62.156999999999996</c:v>
+                  <c:v>64.856999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1134,6 +1177,1400 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>Planilha1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Elementos Lógicos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$B$2:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$M$2:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>93159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71888</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58330</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57149</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49590</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49607</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45052</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41267</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39684</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38241</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37974</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36064</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35321</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34615</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33880</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33510</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32786</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32426</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34317</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33633</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32943</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B0EB-4589-9B58-9806AAE35BC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="247"/>
+        <c:axId val="110171312"/>
+        <c:axId val="85434416"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Multiplicadores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$N$2:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="#,##0">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="#,##0">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="#,##0">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="#,##0">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="#,##0">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="#,##0">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="#,##0">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="#,##0">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="#,##0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="#,##0">
+                  <c:v>144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B0EB-4589-9B58-9806AAE35BC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="93125648"/>
+        <c:axId val="115242624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="110171312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>frequência</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> operacional [mhz]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="85434416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="85434416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Número</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> de elementos lógicos</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="110171312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10000"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="115242624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>número</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> de multiplicadores</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="93125648"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="50"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="93125648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="115242624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29776253655396667"/>
+          <c:y val="4.0944881889763786E-2"/>
+          <c:w val="0.57380794451168571"/>
+          <c:h val="6.6766045935652718E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$B$2:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$O$2:$O$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>13719156</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11087632</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9400042</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8181341</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7242537</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6489647</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5926827</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5460964</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5089136</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4709100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4429203</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4143150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3961340</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3775426</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3585408</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3504763</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3307563</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3221788</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3133961</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3044082</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2952151</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2858168</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A85-4752-B3E6-1C43206A9B0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="110171312"/>
+        <c:axId val="85434416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="110171312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>frequência</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> operacional</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="85434416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="85434416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Bits</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> de memória</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="110171312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>Planilha3!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1333,7 +2770,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B0EB-4589-9B58-9806AAE35BC2}"/>
+              <c16:uniqueId val="{00000000-1A12-4D7C-96D5-37681BE2B35C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1367,7 +2804,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="12700" cap="rnd">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1494,7 +2931,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B0EB-4589-9B58-9806AAE35BC2}"/>
+              <c16:uniqueId val="{00000001-1A12-4D7C-96D5-37681BE2B35C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1967,7 +3404,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -1981,36 +3418,76 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.18692064593035035"/>
-          <c:y val="3.5545521264818199E-2"/>
-          <c:w val="0.78804645064157064"/>
-          <c:h val="0.67913522658008985"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Elementos Lógicos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Planilha1!$B$2:$B$23</c:f>
@@ -2088,19 +3565,83 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$N$2:$N$23</c:f>
+              <c:f>Planilha1!$M$2:$M$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>532</c:v>
+                  <c:v>93159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71888</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58330</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57149</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49590</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49607</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45052</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41267</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39684</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38241</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37974</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36064</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35321</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34615</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33880</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33510</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32786</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32426</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34317</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33633</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32943</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-720E-49E6-BE59-9FB52E4E838D}"/>
+              <c16:uniqueId val="{00000000-DA1F-4740-BC2F-CA3C8F9AA9B4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2112,12 +3653,175 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="300"/>
-        <c:axId val="1946674256"/>
-        <c:axId val="2028674784"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="110171312"/>
+        <c:axId val="85434416"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$AN$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Antigo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$AN$2:$AN$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>101665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76576</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61612</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60352</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47234</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47750</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41088</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39557</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39564</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38043</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36477</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35712</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34946</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34554</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35743</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35177</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33993</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33389</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33649</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33649</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DA1F-4740-BC2F-CA3C8F9AA9B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="93125648"/>
+        <c:axId val="115242624"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="1946674256"/>
+        <c:axId val="110171312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2130,11 +3834,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2143,37 +3847,17 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR" sz="1600">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Frequência Operacional </a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>frequência</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="pt-BR" sz="1600" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>[MHz]</a:t>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> operacional [mhz]</a:t>
                 </a:r>
-                <a:endParaRPr lang="pt-BR" sz="1600">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:endParaRPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.31898491845743632"/>
-              <c:y val="0.80353895336542647"/>
-            </c:manualLayout>
-          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2187,11 +3871,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -2225,9 +3909,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2237,15 +3924,15 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2028674784"/>
+        <c:crossAx val="85434416"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2028674784"/>
+        <c:axId val="85434416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2267,14 +3954,13 @@
         </c:majorGridlines>
         <c:minorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="5000"/>
                   <a:lumOff val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -2286,11 +3972,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2299,24 +3985,17 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR" sz="1600">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Número de Elementos Lógicos</a:t>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Número</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> de elementos lógicos</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="4.1374288770264422E-3"/>
-              <c:y val="8.8839546715428361E-2"/>
-            </c:manualLayout>
-          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2330,11 +4009,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -2346,8 +4025,8 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2362,9 +4041,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2374,49 +4056,162 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1946674256"/>
+        <c:crossAx val="110171312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="10000"/>
+        <c:majorUnit val="5000"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="115242624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>número</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> de multiplicadores</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="93125648"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="93125648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="115242624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:gradFill>
-            <a:gsLst>
-              <a:gs pos="20000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="74000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="45000"/>
-                  <a:lumOff val="55000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="83000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="45000"/>
-                  <a:lumOff val="55000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="30000"/>
-                  <a:lumOff val="70000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="1"/>
-          </a:gradFill>
+          <a:noFill/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29212476347433314"/>
+          <c:y val="0.16701938045709902"/>
+          <c:w val="0.57380794451168571"/>
+          <c:h val="6.6766045935652718E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2449,10 +4244,11 @@
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -2943,7 +4739,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -3812,7 +5608,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -4911,6 +6707,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
   <cs:axisTitle>
@@ -5958,509 +7834,6 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6983,7 +8356,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7506,7 +8879,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8029,20 +9402,1589 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>181842</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>162792</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8071,16 +11013,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8107,10 +11049,210 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53D0A45D-E317-452F-B799-A415B120B4DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDD2FCC9-A83F-4188-A15B-FD66232D3FA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CFC4C6C-487F-46B8-9D06-5B6E8531BAF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.29842</cdr:x>
+      <cdr:y>0.87153</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.48814</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="CaixaDeTexto 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A6FBAD-9177-4579-933E-23D9AAF26606}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1438275" y="2390774"/>
+          <a:ext cx="914400" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F75FB948-B6DC-4620-AA63-1BEF3EF08FA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -8240,89 +11382,89 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5">
-          <a:extLst>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.29842</cdr:x>
+      <cdr:y>0.87153</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.48814</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="CaixaDeTexto 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C79D1CE9-122C-4D59-9085-A08242842062}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A6FBAD-9177-4579-933E-23D9AAF26606}"/>
             </a:ext>
           </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1438275" y="2390774"/>
+          <a:ext cx="914400" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3">
-          <a:extLst>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.29842</cdr:x>
+      <cdr:y>0.87153</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.48814</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="CaixaDeTexto 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E258BBC5-5F6C-47C2-8892-EDC51E814A5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A6FBAD-9177-4579-933E-23D9AAF26606}"/>
             </a:ext>
           </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1438275" y="2390774"/>
+          <a:ext cx="914400" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8372,23 +11514,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>609598</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2505F29-4B9F-422C-8486-7240EBDD7517}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E258BBC5-5F6C-47C2-8892-EDC51E814A5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8458,23 +11600,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609598</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>76199</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F75FB948-B6DC-4620-AA63-1BEF3EF08FA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2505F29-4B9F-422C-8486-7240EBDD7517}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8794,22 +11936,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104259CF-4DA1-435F-859F-CDADF407460C}">
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:AO78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="6.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8828,8 +11975,8 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>12</v>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -8841,20 +11988,29 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="P1" s="1"/>
+      <c r="AN1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -8865,19 +12021,18 @@
         <f>1/B2*1000000</f>
         <v>6250</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="14">
         <v>373562.5</v>
       </c>
       <c r="E2" s="1">
-        <f>G2*F2+J2</f>
-        <v>375393.75</v>
-      </c>
-      <c r="F2" s="1">
+        <v>373562.5</v>
+      </c>
+      <c r="F2" s="14">
         <v>2700</v>
       </c>
-      <c r="G2" s="1">
-        <f>ROUNDUP(D2/F2,0)</f>
-        <v>139</v>
+      <c r="G2" s="2">
+        <f>ROUNDUP(D2/F2,0)+1</f>
+        <v>140</v>
       </c>
       <c r="H2">
         <f>1/I2*1000000</f>
@@ -8887,24 +12042,30 @@
         <f>ROUNDUP(C2,0)</f>
         <v>6250</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="15">
         <v>93.75</v>
       </c>
       <c r="K2">
         <f>E2/1000</f>
-        <v>375.39375000000001</v>
+        <v>373.5625</v>
       </c>
       <c r="L2" s="11">
         <v>0</v>
       </c>
-      <c r="M2" s="5">
-        <v>120869</v>
-      </c>
-      <c r="N2">
+      <c r="M2" s="16">
+        <v>93159</v>
+      </c>
+      <c r="N2" s="17">
         <v>532</v>
       </c>
+      <c r="O2" s="18">
+        <v>13719156</v>
+      </c>
+      <c r="AN2" s="6">
+        <v>101665</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -8915,19 +12076,19 @@
         <f>1/B3*1000000</f>
         <v>5000</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="14">
         <v>298860</v>
       </c>
       <c r="E3" s="1">
         <f>G3*F3+J3</f>
-        <v>299785</v>
-      </c>
-      <c r="F3" s="1">
+        <v>302485</v>
+      </c>
+      <c r="F3" s="14">
         <v>2700</v>
       </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G20" si="0">ROUNDUP(D3/F3,0)</f>
-        <v>111</v>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G23" si="0">ROUNDUP(D3/F3,0)+1</f>
+        <v>112</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H21" si="1">1/I3*1000000</f>
@@ -8937,19 +12098,30 @@
         <f t="shared" ref="I3:I20" si="2">ROUNDUP(C3,0)</f>
         <v>5000</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="15">
         <v>85</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K20" si="3">E3/1000</f>
-        <v>299.78500000000003</v>
+        <v>302.48500000000001</v>
       </c>
       <c r="L3" s="11">
         <v>1</v>
       </c>
-      <c r="M3" s="5"/>
+      <c r="M3" s="16">
+        <v>71888</v>
+      </c>
+      <c r="N3" s="17">
+        <v>532</v>
+      </c>
+      <c r="O3" s="18">
+        <v>11087632</v>
+      </c>
+      <c r="AN3" s="6">
+        <v>76576</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -8957,22 +12129,22 @@
         <v>240</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C28" si="4">1/B4*1000000</f>
+        <f t="shared" ref="C4:C23" si="4">1/B4*1000000</f>
         <v>4166.666666666667</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="14">
         <v>249078.258</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E28" si="5">G4*F4+J4</f>
-        <v>251199.261</v>
-      </c>
-      <c r="F4" s="1">
+        <f t="shared" ref="E4:E23" si="5">G4*F4+J4</f>
+        <v>253899.47700000001</v>
+      </c>
+      <c r="F4" s="14">
         <v>2700.2159999999999</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
@@ -8982,20 +12154,30 @@
         <f t="shared" si="2"/>
         <v>4167</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="15">
         <v>79.173000000000002</v>
       </c>
       <c r="K4">
         <f t="shared" si="3"/>
-        <v>251.19926100000001</v>
+        <v>253.89947700000002</v>
       </c>
       <c r="L4" s="11">
         <v>2</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="1"/>
+      <c r="M4" s="19">
+        <v>58330</v>
+      </c>
+      <c r="N4" s="14">
+        <v>532</v>
+      </c>
+      <c r="O4" s="18">
+        <v>9400042</v>
+      </c>
+      <c r="AN4" s="6">
+        <v>61612</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>7</v>
       </c>
@@ -9006,19 +12188,19 @@
         <f t="shared" si="4"/>
         <v>3571.4285714285711</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="14">
         <v>213519.872</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="5"/>
-        <v>216109.57199999999</v>
-      </c>
-      <c r="F5" s="1">
+        <v>218810.00399999996</v>
+      </c>
+      <c r="F5" s="14">
         <v>2700.4319999999998</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
@@ -9028,20 +12210,30 @@
         <f t="shared" si="2"/>
         <v>3572</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="15">
         <v>75.012</v>
       </c>
       <c r="K5">
         <f t="shared" si="3"/>
-        <v>216.10957199999999</v>
+        <v>218.81000399999996</v>
       </c>
       <c r="L5" s="11">
         <v>3</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="1"/>
+      <c r="M5" s="19">
+        <v>57149</v>
+      </c>
+      <c r="N5" s="14">
+        <v>400</v>
+      </c>
+      <c r="O5" s="18">
+        <v>8181341</v>
+      </c>
+      <c r="AN5" s="6">
+        <v>60352</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>8</v>
       </c>
@@ -9052,19 +12244,19 @@
         <f t="shared" si="4"/>
         <v>3125</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="14">
         <v>186806.25</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="5"/>
-        <v>189071.875</v>
-      </c>
-      <c r="F6" s="1">
+        <v>191771.875</v>
+      </c>
+      <c r="F6" s="14">
         <v>2700</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
@@ -9074,20 +12266,30 @@
         <f t="shared" si="2"/>
         <v>3125</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="15">
         <v>71.875</v>
       </c>
       <c r="K6">
         <f t="shared" si="3"/>
-        <v>189.07187500000001</v>
+        <v>191.77187499999999</v>
       </c>
       <c r="L6" s="11">
         <v>4</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="1"/>
+      <c r="M6" s="19">
+        <v>49590</v>
+      </c>
+      <c r="N6" s="14">
+        <v>400</v>
+      </c>
+      <c r="O6" s="18">
+        <v>7242537</v>
+      </c>
+      <c r="AN6" s="6">
+        <v>52500</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>9</v>
       </c>
@@ -9098,19 +12300,19 @@
         <f t="shared" si="4"/>
         <v>2777.7777777777778</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="14">
         <v>166068.84</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="5"/>
-        <v>167482.842</v>
-      </c>
-      <c r="F7" s="1">
+        <v>170183.05800000002</v>
+      </c>
+      <c r="F7" s="14">
         <v>2700.2159999999999</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
@@ -9120,20 +12322,30 @@
         <f t="shared" si="2"/>
         <v>2778</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="15">
         <v>69.45</v>
       </c>
       <c r="K7">
         <f t="shared" si="3"/>
-        <v>167.48284200000001</v>
+        <v>170.18305800000002</v>
       </c>
       <c r="L7" s="11">
         <v>5</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="1"/>
+      <c r="M7" s="19">
+        <v>49607</v>
+      </c>
+      <c r="N7" s="14">
+        <v>308</v>
+      </c>
+      <c r="O7" s="18">
+        <v>6489647</v>
+      </c>
+      <c r="AN7" s="6">
+        <v>47234</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -9144,19 +12356,19 @@
         <f t="shared" si="4"/>
         <v>2500</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="14">
         <v>149455</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="5"/>
-        <v>151267.5</v>
-      </c>
-      <c r="F8" s="1">
+        <v>153967.5</v>
+      </c>
+      <c r="F8" s="14">
         <v>2700</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
@@ -9166,20 +12378,30 @@
         <f t="shared" si="2"/>
         <v>2500</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="15">
         <v>67.5</v>
       </c>
       <c r="K8">
         <f t="shared" si="3"/>
-        <v>151.26750000000001</v>
+        <v>153.9675</v>
       </c>
       <c r="L8" s="11">
         <v>6</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="1"/>
+      <c r="M8" s="19">
+        <v>45052</v>
+      </c>
+      <c r="N8" s="14">
+        <v>308</v>
+      </c>
+      <c r="O8" s="18">
+        <v>5926827</v>
+      </c>
+      <c r="AN8" s="6">
+        <v>47750</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>11</v>
       </c>
@@ -9190,19 +12412,19 @@
         <f t="shared" si="4"/>
         <v>2272.7272727272725</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="14">
         <v>135889.03200000001</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="5"/>
-        <v>137782.44099999999</v>
-      </c>
-      <c r="F9" s="1">
+        <v>140482.76499999998</v>
+      </c>
+      <c r="F9" s="14">
         <v>2700.3240000000001</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
@@ -9212,20 +12434,30 @@
         <f t="shared" si="2"/>
         <v>2273</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="15">
         <v>65.917000000000002</v>
       </c>
       <c r="K9">
         <f t="shared" si="3"/>
-        <v>137.78244100000001</v>
+        <v>140.48276499999997</v>
       </c>
       <c r="L9" s="11">
         <v>7</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="1"/>
+      <c r="M9" s="19">
+        <v>41267</v>
+      </c>
+      <c r="N9" s="14">
+        <v>308</v>
+      </c>
+      <c r="O9" s="18">
+        <v>5460964</v>
+      </c>
+      <c r="AN9" s="6">
+        <v>43048</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>12</v>
       </c>
@@ -9236,19 +12468,19 @@
         <f t="shared" si="4"/>
         <v>2083.3333333333335</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="14">
         <v>124594.024</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="5"/>
-        <v>127005.21200000001</v>
-      </c>
-      <c r="F10" s="1">
+        <v>129706.07600000002</v>
+      </c>
+      <c r="F10" s="14">
         <v>2700.864</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
@@ -9258,20 +12490,30 @@
         <f t="shared" si="2"/>
         <v>2084</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="15">
         <v>64.603999999999999</v>
       </c>
       <c r="K10">
         <f t="shared" si="3"/>
-        <v>127.00521200000001</v>
+        <v>129.70607600000002</v>
       </c>
       <c r="L10" s="11">
         <v>8</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="1"/>
+      <c r="M10" s="19">
+        <v>39684</v>
+      </c>
+      <c r="N10" s="14">
+        <v>288</v>
+      </c>
+      <c r="O10" s="18">
+        <v>5089136</v>
+      </c>
+      <c r="AN10" s="6">
+        <v>41088</v>
+      </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>13</v>
       </c>
@@ -9282,19 +12524,19 @@
         <f t="shared" si="4"/>
         <v>1923.0769230769231</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="14">
         <v>115032.11199999999</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="5"/>
-        <v>116219.21999999999</v>
-      </c>
-      <c r="F11" s="1">
+        <v>118920.51599999999</v>
+      </c>
+      <c r="F11" s="14">
         <v>2701.2959999999998</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
@@ -9304,20 +12546,30 @@
         <f t="shared" si="2"/>
         <v>1924</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="15">
         <v>63.491999999999997</v>
       </c>
       <c r="K11">
         <f t="shared" si="3"/>
-        <v>116.21921999999999</v>
+        <v>118.92051599999999</v>
       </c>
       <c r="L11" s="11">
         <v>9</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="1"/>
+      <c r="M11" s="19">
+        <v>38241</v>
+      </c>
+      <c r="N11" s="14">
+        <v>264</v>
+      </c>
+      <c r="O11" s="18">
+        <v>4709100</v>
+      </c>
+      <c r="AN11" s="6">
+        <v>39557</v>
+      </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>14</v>
       </c>
@@ -9328,19 +12580,19 @@
         <f t="shared" si="4"/>
         <v>1785.7142857142856</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="14">
         <v>106784.94</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="5"/>
-        <v>108079.79</v>
-      </c>
-      <c r="F12" s="1">
+        <v>110780.22199999998</v>
+      </c>
+      <c r="F12" s="14">
         <v>2700.4319999999998</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
@@ -9350,20 +12602,30 @@
         <f t="shared" si="2"/>
         <v>1786</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="15">
         <v>62.51</v>
       </c>
       <c r="K12">
         <f t="shared" si="3"/>
-        <v>108.07978999999999</v>
+        <v>110.78022199999998</v>
       </c>
       <c r="L12" s="11">
         <v>10</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="1"/>
+      <c r="M12" s="19">
+        <v>37974</v>
+      </c>
+      <c r="N12" s="14">
+        <v>232</v>
+      </c>
+      <c r="O12" s="18">
+        <v>4429203</v>
+      </c>
+      <c r="AN12" s="6">
+        <v>39564</v>
+      </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>15</v>
       </c>
@@ -9374,19 +12636,19 @@
         <f t="shared" si="4"/>
         <v>1666.6666666666667</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="14">
         <v>99673.263999999996</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="5"/>
-        <v>99981.659</v>
-      </c>
-      <c r="F13" s="1">
+        <v>102682.19900000001</v>
+      </c>
+      <c r="F13" s="14">
         <v>2700.54</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
@@ -9396,20 +12658,30 @@
         <f t="shared" si="2"/>
         <v>1667</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="15">
         <v>61.679000000000002</v>
       </c>
       <c r="K13">
         <f t="shared" si="3"/>
-        <v>99.981658999999993</v>
+        <v>102.68219900000001</v>
       </c>
       <c r="L13" s="11">
         <v>11</v>
       </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="5"/>
+      <c r="M13" s="19">
+        <v>36064</v>
+      </c>
+      <c r="N13" s="16">
+        <v>228</v>
+      </c>
+      <c r="O13" s="18">
+        <v>4143150</v>
+      </c>
+      <c r="AN13" s="6">
+        <v>38043</v>
+      </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>16</v>
       </c>
@@ -9420,19 +12692,19 @@
         <f t="shared" si="4"/>
         <v>1562.5</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="14">
         <v>93458.021999999997</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="5"/>
-        <v>94591.197</v>
-      </c>
-      <c r="F14" s="1">
+        <v>97292.061000000002</v>
+      </c>
+      <c r="F14" s="14">
         <v>2700.864</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
@@ -9442,20 +12714,30 @@
         <f t="shared" si="2"/>
         <v>1563</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="15">
         <v>60.957000000000001</v>
       </c>
       <c r="K14">
         <f t="shared" si="3"/>
-        <v>94.591196999999994</v>
+        <v>97.292061000000004</v>
       </c>
       <c r="L14" s="11">
         <v>12</v>
       </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="5"/>
+      <c r="M14" s="19">
+        <v>35321</v>
+      </c>
+      <c r="N14" s="16">
+        <v>216</v>
+      </c>
+      <c r="O14" s="18">
+        <v>3961340</v>
+      </c>
+      <c r="AN14" s="6">
+        <v>36477</v>
+      </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>17</v>
       </c>
@@ -9466,19 +12748,19 @@
         <f t="shared" si="4"/>
         <v>1470.5882352941176</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="14">
         <v>87959.915999999997</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="5"/>
-        <v>89185.258999999991</v>
-      </c>
-      <c r="F15" s="1">
+        <v>91886.014999999999</v>
+      </c>
+      <c r="F15" s="14">
         <v>2700.7559999999999</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="2">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
@@ -9488,20 +12770,30 @@
         <f t="shared" si="2"/>
         <v>1471</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="15">
         <v>60.311</v>
       </c>
       <c r="K15">
         <f t="shared" si="3"/>
-        <v>89.185258999999988</v>
+        <v>91.886015</v>
       </c>
       <c r="L15" s="11">
         <v>13</v>
       </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="5"/>
+      <c r="M15" s="19">
+        <v>34615</v>
+      </c>
+      <c r="N15" s="16">
+        <v>204</v>
+      </c>
+      <c r="O15" s="18">
+        <v>3775426</v>
+      </c>
+      <c r="AN15" s="6">
+        <v>35712</v>
+      </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>18</v>
       </c>
@@ -9512,19 +12804,19 @@
         <f t="shared" si="4"/>
         <v>1388.8888888888889</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="14">
         <v>83059.422000000006</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="5"/>
-        <v>83766.422999999995</v>
-      </c>
-      <c r="F16" s="1">
+        <v>86466.638999999996</v>
+      </c>
+      <c r="F16" s="14">
         <v>2700.2159999999999</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="2">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
@@ -9534,20 +12826,30 @@
         <f t="shared" si="2"/>
         <v>1389</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="15">
         <v>59.726999999999997</v>
       </c>
       <c r="K16">
         <f t="shared" si="3"/>
-        <v>83.766422999999989</v>
+        <v>86.466639000000001</v>
       </c>
       <c r="L16" s="11">
         <v>14</v>
       </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="5"/>
+      <c r="M16" s="19">
+        <v>33880</v>
+      </c>
+      <c r="N16" s="16">
+        <v>192</v>
+      </c>
+      <c r="O16" s="18">
+        <v>3585408</v>
+      </c>
+      <c r="AN16" s="6">
+        <v>34946</v>
+      </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>19</v>
       </c>
@@ -9558,19 +12860,19 @@
         <f t="shared" si="4"/>
         <v>1315.7894736842104</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="14">
         <v>78696.800000000003</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="5"/>
-        <v>81072.179999999993</v>
-      </c>
-      <c r="F17" s="1">
+        <v>83772.611999999994</v>
+      </c>
+      <c r="F17" s="14">
         <v>2700.4319999999998</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="2">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
@@ -9580,20 +12882,30 @@
         <f t="shared" si="2"/>
         <v>1316</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="15">
         <v>59.22</v>
       </c>
       <c r="K17">
         <f t="shared" si="3"/>
-        <v>81.072179999999989</v>
+        <v>83.772611999999995</v>
       </c>
       <c r="L17" s="11">
         <v>15</v>
       </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="5"/>
+      <c r="M17" s="19">
+        <v>33510</v>
+      </c>
+      <c r="N17" s="16">
+        <v>186</v>
+      </c>
+      <c r="O17" s="18">
+        <v>3504763</v>
+      </c>
+      <c r="AN17" s="6">
+        <v>34554</v>
+      </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>20</v>
       </c>
@@ -9604,19 +12916,19 @@
         <f t="shared" si="4"/>
         <v>1250</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="14">
         <v>74752.5</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="5"/>
-        <v>75658.75</v>
-      </c>
-      <c r="F18" s="1">
+        <v>78358.75</v>
+      </c>
+      <c r="F18" s="14">
         <v>2700</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="2">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
@@ -9626,20 +12938,30 @@
         <f t="shared" si="2"/>
         <v>1250</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="15">
         <v>58.75</v>
       </c>
       <c r="K18">
         <f t="shared" si="3"/>
-        <v>75.658749999999998</v>
+        <v>78.358750000000001</v>
       </c>
       <c r="L18" s="11">
         <v>16</v>
       </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="5"/>
+      <c r="M18" s="19">
+        <v>32786</v>
+      </c>
+      <c r="N18" s="16">
+        <v>174</v>
+      </c>
+      <c r="O18" s="18">
+        <v>3307563</v>
+      </c>
+      <c r="AN18" s="6">
+        <v>35743</v>
+      </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>21</v>
       </c>
@@ -9650,19 +12972,19 @@
         <f t="shared" si="4"/>
         <v>1190.4761904761906</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="14">
         <v>71226.563999999998</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="5"/>
-        <v>72990.434999999998</v>
-      </c>
-      <c r="F19" s="1">
+        <v>75691.622999999992</v>
+      </c>
+      <c r="F19" s="14">
         <v>2701.1880000000001</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="2">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
@@ -9672,20 +12994,30 @@
         <f t="shared" si="2"/>
         <v>1191</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="15">
         <v>58.359000000000002</v>
       </c>
       <c r="K19">
         <f t="shared" si="3"/>
-        <v>72.990434999999991</v>
+        <v>75.691622999999993</v>
       </c>
       <c r="L19" s="11">
         <v>17</v>
       </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="5"/>
+      <c r="M19" s="19">
+        <v>32426</v>
+      </c>
+      <c r="N19" s="16">
+        <v>168</v>
+      </c>
+      <c r="O19" s="18">
+        <v>3221788</v>
+      </c>
+      <c r="AN19" s="6">
+        <v>35177</v>
+      </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>22</v>
       </c>
@@ -9696,19 +13028,19 @@
         <f t="shared" si="4"/>
         <v>1136.3636363636363</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="14">
         <v>67999.422000000006</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="5"/>
-        <v>70297.298999999999</v>
-      </c>
-      <c r="F20" s="1">
+        <v>72998.811000000002</v>
+      </c>
+      <c r="F20" s="14">
         <v>2701.5120000000002</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="2">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
@@ -9718,21 +13050,31 @@
         <f t="shared" si="2"/>
         <v>1137</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="15">
         <v>57.987000000000002</v>
       </c>
       <c r="K20">
         <f t="shared" si="3"/>
-        <v>70.297298999999995</v>
+        <v>72.998811000000003</v>
       </c>
       <c r="L20" s="11">
         <v>18</v>
       </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="5"/>
+      <c r="M20" s="19">
+        <v>34317</v>
+      </c>
+      <c r="N20" s="16">
+        <v>162</v>
+      </c>
+      <c r="O20" s="18">
+        <v>3133961</v>
+      </c>
       <c r="Q20" s="4"/>
+      <c r="AN20" s="6">
+        <v>33993</v>
+      </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>23</v>
       </c>
@@ -9743,42 +13085,52 @@
         <f t="shared" si="4"/>
         <v>1086.9565217391305</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="14">
         <v>65011.296000000002</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="5"/>
-        <v>67560.311000000016</v>
-      </c>
-      <c r="F21" s="1">
+        <v>70260.419000000009</v>
+      </c>
+      <c r="F21" s="14">
         <v>2700.1080000000002</v>
       </c>
-      <c r="G21" s="1">
-        <f t="shared" ref="G21:G28" si="6">ROUNDUP(D21/F21,0)</f>
-        <v>25</v>
+      <c r="G21" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="H21">
         <f t="shared" si="1"/>
         <v>919.96320147194115</v>
       </c>
       <c r="I21" s="11">
-        <f t="shared" ref="I21:I28" si="7">ROUNDUP(C21,0)</f>
+        <f t="shared" ref="I21:I26" si="6">ROUNDUP(C21,0)</f>
         <v>1087</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="15">
         <v>57.610999999999997</v>
       </c>
       <c r="K21">
-        <f t="shared" ref="K21:K28" si="8">E21/1000</f>
-        <v>67.560311000000013</v>
+        <f t="shared" ref="K21:K73" si="7">E21/1000</f>
+        <v>70.260419000000013</v>
       </c>
       <c r="L21" s="11">
         <v>19</v>
       </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
+      <c r="M21" s="19">
+        <v>33633</v>
+      </c>
+      <c r="N21" s="19">
+        <v>156</v>
+      </c>
+      <c r="O21" s="18">
+        <v>3044082</v>
+      </c>
+      <c r="AN21" s="6">
+        <v>33389</v>
+      </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>24</v>
       </c>
@@ -9789,41 +13141,52 @@
         <f t="shared" si="4"/>
         <v>1041.6666666666667</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="14">
         <v>62322.02</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="5"/>
-        <v>64878.046000000002</v>
-      </c>
-      <c r="F22" s="1">
+        <v>67578.91</v>
+      </c>
+      <c r="F22" s="14">
         <v>2700.864</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ref="H22:H27" si="8">1/I22*1000000</f>
+        <v>959.69289827255272</v>
+      </c>
+      <c r="I22" s="11">
         <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="H22">
-        <f t="shared" ref="H22:H28" si="9">1/I22*1000000</f>
-        <v>959.69289827255272</v>
-      </c>
-      <c r="I22" s="11">
+        <v>1042</v>
+      </c>
+      <c r="J22" s="15">
+        <v>57.31</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="7"/>
-        <v>1042</v>
-      </c>
-      <c r="J22" s="12">
-        <v>57.31</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="8"/>
-        <v>64.878045999999998</v>
+        <v>67.578910000000008</v>
       </c>
       <c r="L22" s="11">
         <v>20</v>
       </c>
-      <c r="N22" s="4"/>
+      <c r="M22" s="19">
+        <v>32943</v>
+      </c>
+      <c r="N22" s="19">
+        <v>150</v>
+      </c>
+      <c r="O22" s="18">
+        <v>2952151</v>
+      </c>
+      <c r="AN22" s="6">
+        <v>33649</v>
+      </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>25</v>
       </c>
@@ -9834,341 +13197,1697 @@
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="14">
         <v>59812</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="5"/>
-        <v>62157</v>
-      </c>
-      <c r="F23" s="1">
+        <v>64857</v>
+      </c>
+      <c r="F23" s="14">
         <v>2700</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+      <c r="I23" s="11">
         <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="9"/>
         <v>1000</v>
       </c>
-      <c r="I23" s="11">
+      <c r="J23" s="15">
+        <v>57</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="J23" s="12">
-        <v>57</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="8"/>
-        <v>62.156999999999996</v>
+        <v>64.856999999999999</v>
       </c>
       <c r="L23" s="11">
         <v>21</v>
       </c>
-      <c r="N23" s="4"/>
+      <c r="M23" s="19">
+        <v>32216</v>
+      </c>
+      <c r="N23" s="19">
+        <v>144</v>
+      </c>
+      <c r="O23" s="18">
+        <v>2858168</v>
+      </c>
+      <c r="AN23" s="6">
+        <v>33649</v>
+      </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1040</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" ref="C24:C64" si="9">1/B24*1000000</f>
+        <v>961.53846153846155</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="I24" s="11"/>
-      <c r="L24" s="11"/>
+      <c r="G24" s="2"/>
+      <c r="H24">
+        <f t="shared" si="8"/>
+        <v>1039.5010395010395</v>
+      </c>
+      <c r="I24" s="11">
+        <f t="shared" si="6"/>
+        <v>962</v>
+      </c>
+      <c r="J24" s="12"/>
+      <c r="K24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="11">
+        <v>22</v>
+      </c>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1080</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="9"/>
+        <v>925.92592592592598</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="I25" s="11"/>
-      <c r="L25" s="11"/>
+      <c r="G25" s="2"/>
+      <c r="H25">
+        <f t="shared" si="8"/>
+        <v>1079.9136069114472</v>
+      </c>
+      <c r="I25" s="11">
+        <f t="shared" si="6"/>
+        <v>926</v>
+      </c>
+      <c r="J25" s="12"/>
+      <c r="K25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <v>23</v>
+      </c>
+      <c r="M25" s="11"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1120</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="9"/>
+        <v>892.85714285714278</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="I26" s="11"/>
-      <c r="L26" s="11"/>
+      <c r="G26" s="2"/>
+      <c r="H26">
+        <f t="shared" si="8"/>
+        <v>1119.8208286674133</v>
+      </c>
+      <c r="I26" s="11">
+        <f t="shared" si="6"/>
+        <v>893</v>
+      </c>
+      <c r="J26" s="12"/>
+      <c r="K26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="11">
+        <v>24</v>
+      </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1160</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="9"/>
+        <v>862.06896551724139</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="I27" s="11"/>
-      <c r="L27" s="11"/>
+      <c r="G27" s="2"/>
+      <c r="H27">
+        <f t="shared" si="8"/>
+        <v>1158.7485515643104</v>
+      </c>
+      <c r="I27" s="11">
+        <f t="shared" ref="I27:I67" si="10">ROUNDUP(C27,0)</f>
+        <v>863</v>
+      </c>
+      <c r="J27" s="12"/>
+      <c r="K27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="11">
+        <v>25</v>
+      </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="9"/>
+        <v>833.33333333333337</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="I28" s="11"/>
-      <c r="L28" s="11"/>
+      <c r="G28" s="2"/>
+      <c r="H28">
+        <f t="shared" ref="H28:H68" si="11">1/I28*1000000</f>
+        <v>1199.0407673860911</v>
+      </c>
+      <c r="I28" s="11">
+        <f t="shared" si="10"/>
+        <v>834</v>
+      </c>
+      <c r="J28" s="12"/>
+      <c r="K28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="11">
+        <v>26</v>
+      </c>
+      <c r="M28" s="5"/>
+      <c r="N28" s="6"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1240</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="9"/>
+        <v>806.45161290322585</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="2"/>
+      <c r="H29">
+        <f t="shared" si="11"/>
+        <v>1239.1573729863692</v>
+      </c>
+      <c r="I29" s="11">
+        <f t="shared" si="10"/>
+        <v>807</v>
+      </c>
+      <c r="J29" s="12"/>
+      <c r="K29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
+        <v>27</v>
+      </c>
+      <c r="M29" s="5"/>
+      <c r="N29" s="6"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1280</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="9"/>
+        <v>781.25</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="2"/>
+      <c r="H30">
+        <f t="shared" si="11"/>
+        <v>1278.7723785166243</v>
+      </c>
+      <c r="I30" s="11">
+        <f t="shared" si="10"/>
+        <v>782</v>
+      </c>
+      <c r="J30" s="12"/>
+      <c r="K30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="11">
+        <v>28</v>
+      </c>
+      <c r="M30" s="13"/>
+      <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1320</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="9"/>
+        <v>757.57575757575762</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="2"/>
+      <c r="H31">
+        <f t="shared" si="11"/>
+        <v>1319.2612137203166</v>
+      </c>
+      <c r="I31" s="11">
+        <f t="shared" si="10"/>
+        <v>758</v>
+      </c>
+      <c r="J31" s="12"/>
+      <c r="K31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="11">
+        <v>29</v>
+      </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1360</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="9"/>
+        <v>735.29411764705878</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="2"/>
+      <c r="H32">
+        <f t="shared" si="11"/>
+        <v>1358.695652173913</v>
+      </c>
+      <c r="I32" s="11">
+        <f t="shared" si="10"/>
+        <v>736</v>
+      </c>
+      <c r="J32" s="12"/>
+      <c r="K32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="11">
+        <v>30</v>
+      </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1400</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="9"/>
+        <v>714.28571428571433</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="2"/>
+      <c r="H33">
+        <f t="shared" si="11"/>
+        <v>1398.6013986013986</v>
+      </c>
+      <c r="I33" s="11">
+        <f t="shared" si="10"/>
+        <v>715</v>
+      </c>
+      <c r="J33" s="12"/>
+      <c r="K33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="11">
+        <v>31</v>
+      </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>36</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1440</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="9"/>
+        <v>694.44444444444446</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="2"/>
+      <c r="H34">
+        <f t="shared" si="11"/>
+        <v>1438.8489208633093</v>
+      </c>
+      <c r="I34" s="11">
+        <f t="shared" si="10"/>
+        <v>695</v>
+      </c>
+      <c r="J34" s="12"/>
+      <c r="K34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="11">
+        <v>32</v>
+      </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>37</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1480</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="9"/>
+        <v>675.67567567567573</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="2"/>
+      <c r="H35">
+        <f t="shared" si="11"/>
+        <v>1479.2899408284022</v>
+      </c>
+      <c r="I35" s="11">
+        <f t="shared" si="10"/>
+        <v>676</v>
+      </c>
+      <c r="J35" s="12"/>
+      <c r="K35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="11">
+        <v>33</v>
+      </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>38</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1520</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="9"/>
+        <v>657.8947368421052</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="2"/>
+      <c r="H36">
+        <f t="shared" si="11"/>
+        <v>1519.7568389057751</v>
+      </c>
+      <c r="I36" s="11">
+        <f t="shared" si="10"/>
+        <v>658</v>
+      </c>
+      <c r="J36" s="12"/>
+      <c r="K36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <v>34</v>
+      </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>39</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1560</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="9"/>
+        <v>641.02564102564099</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="2"/>
+      <c r="H37">
+        <f t="shared" si="11"/>
+        <v>1557.632398753894</v>
+      </c>
+      <c r="I37" s="11">
+        <f t="shared" si="10"/>
+        <v>642</v>
+      </c>
+      <c r="J37" s="12"/>
+      <c r="K37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="11">
+        <v>35</v>
+      </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1600</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="9"/>
+        <v>625</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="2"/>
+      <c r="H38">
+        <f t="shared" si="11"/>
+        <v>1600</v>
+      </c>
+      <c r="I38" s="11">
+        <f t="shared" si="10"/>
+        <v>625</v>
+      </c>
+      <c r="J38" s="12"/>
+      <c r="K38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>36</v>
+      </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>41</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1640</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="9"/>
+        <v>609.7560975609756</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="2"/>
+      <c r="H39">
+        <f t="shared" si="11"/>
+        <v>1639.344262295082</v>
+      </c>
+      <c r="I39" s="11">
+        <f t="shared" si="10"/>
+        <v>610</v>
+      </c>
+      <c r="J39" s="12"/>
+      <c r="K39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="11">
+        <v>37</v>
+      </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>42</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1680</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="9"/>
+        <v>595.2380952380953</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="2"/>
+      <c r="H40">
+        <f t="shared" si="11"/>
+        <v>1677.8523489932886</v>
+      </c>
+      <c r="I40" s="11">
+        <f t="shared" si="10"/>
+        <v>596</v>
+      </c>
+      <c r="J40" s="12"/>
+      <c r="K40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>38</v>
+      </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1720</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="9"/>
+        <v>581.39534883720933</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="2"/>
+      <c r="H41">
+        <f t="shared" si="11"/>
+        <v>1718.2130584192439</v>
+      </c>
+      <c r="I41" s="11">
+        <f t="shared" si="10"/>
+        <v>582</v>
+      </c>
+      <c r="J41" s="12"/>
+      <c r="K41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="11">
+        <v>39</v>
+      </c>
+      <c r="N41" t="s">
+        <v>17</v>
+      </c>
+      <c r="O41" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>44</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1760</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="9"/>
+        <v>568.18181818181813</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="2"/>
+      <c r="H42">
+        <f t="shared" si="11"/>
+        <v>1757.4692442882249</v>
+      </c>
+      <c r="I42" s="11">
+        <f t="shared" si="10"/>
+        <v>569</v>
+      </c>
+      <c r="J42" s="12"/>
+      <c r="K42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="11">
+        <v>40</v>
+      </c>
+      <c r="N42">
+        <v>61732</v>
+      </c>
+      <c r="O42">
+        <v>2700</v>
+      </c>
+      <c r="P42">
+        <f>N42/O42</f>
+        <v>22.863703703703703</v>
+      </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>45</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1800</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="9"/>
+        <v>555.55555555555554</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="2"/>
+      <c r="H43">
+        <f t="shared" si="11"/>
+        <v>1798.5611510791368</v>
+      </c>
+      <c r="I43" s="11">
+        <f t="shared" si="10"/>
+        <v>556</v>
+      </c>
+      <c r="J43" s="12"/>
+      <c r="K43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="11">
+        <v>41</v>
+      </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>46</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1840</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="9"/>
+        <v>543.47826086956525</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="2"/>
+      <c r="H44">
+        <f t="shared" si="11"/>
+        <v>1838.2352941176471</v>
+      </c>
+      <c r="I44" s="11">
+        <f t="shared" si="10"/>
+        <v>544</v>
+      </c>
+      <c r="J44" s="12"/>
+      <c r="K44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="11">
+        <v>42</v>
+      </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>47</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1880</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="9"/>
+        <v>531.91489361702133</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="2"/>
+      <c r="H45">
+        <f t="shared" si="11"/>
+        <v>1879.6992481203006</v>
+      </c>
+      <c r="I45" s="11">
+        <f t="shared" si="10"/>
+        <v>532</v>
+      </c>
+      <c r="J45" s="12"/>
+      <c r="K45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="11">
+        <v>43</v>
+      </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>48</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1920</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="9"/>
+        <v>520.83333333333337</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="2"/>
+      <c r="H46">
+        <f t="shared" si="11"/>
+        <v>1919.3857965451054</v>
+      </c>
+      <c r="I46" s="11">
+        <f t="shared" si="10"/>
+        <v>521</v>
+      </c>
+      <c r="J46" s="12"/>
+      <c r="K46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>44</v>
+      </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>49</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1960</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="9"/>
+        <v>510.20408163265313</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="2"/>
+      <c r="H47">
+        <f t="shared" si="11"/>
+        <v>1956.9471624266143</v>
+      </c>
+      <c r="I47" s="11">
+        <f t="shared" si="10"/>
+        <v>511</v>
+      </c>
+      <c r="J47" s="12"/>
+      <c r="K47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="11">
+        <v>45</v>
+      </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>50</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="9"/>
+        <v>500</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="2"/>
+      <c r="H48">
+        <f t="shared" si="11"/>
+        <v>2000</v>
+      </c>
+      <c r="I48" s="11">
+        <f t="shared" si="10"/>
+        <v>500</v>
+      </c>
+      <c r="J48" s="12"/>
+      <c r="K48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="11">
+        <v>46</v>
+      </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>51</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2040</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" si="9"/>
+        <v>490.19607843137254</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="2"/>
+      <c r="H49">
+        <f t="shared" si="11"/>
+        <v>2036.6598778004072</v>
+      </c>
+      <c r="I49" s="11">
+        <f t="shared" si="10"/>
+        <v>491</v>
+      </c>
+      <c r="J49" s="12"/>
+      <c r="K49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="11">
+        <v>47</v>
+      </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>52</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2080</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" si="9"/>
+        <v>480.76923076923077</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="2"/>
+      <c r="H50">
+        <f t="shared" si="11"/>
+        <v>2079.002079002079</v>
+      </c>
+      <c r="I50" s="11">
+        <f t="shared" si="10"/>
+        <v>481</v>
+      </c>
+      <c r="J50" s="12"/>
+      <c r="K50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="11">
+        <v>48</v>
+      </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>53</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2120</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="9"/>
+        <v>471.69811320754718</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="2"/>
+      <c r="H51">
+        <f t="shared" si="11"/>
+        <v>2118.6440677966102</v>
+      </c>
+      <c r="I51" s="11">
+        <f t="shared" si="10"/>
+        <v>472</v>
+      </c>
+      <c r="J51" s="12"/>
+      <c r="K51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="11">
+        <v>49</v>
+      </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>54</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2160</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="9"/>
+        <v>462.96296296296299</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="2"/>
+      <c r="H52">
+        <f t="shared" si="11"/>
+        <v>2159.8272138228945</v>
+      </c>
+      <c r="I52" s="11">
+        <f t="shared" si="10"/>
+        <v>463</v>
+      </c>
+      <c r="J52" s="12"/>
+      <c r="K52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="11">
+        <v>50</v>
+      </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>55</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2200</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="9"/>
+        <v>454.54545454545456</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="2"/>
+      <c r="H53">
+        <f t="shared" si="11"/>
+        <v>2197.802197802198</v>
+      </c>
+      <c r="I53" s="11">
+        <f t="shared" si="10"/>
+        <v>455</v>
+      </c>
+      <c r="J53" s="12"/>
+      <c r="K53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="11">
+        <v>51</v>
+      </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>56</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2240</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="9"/>
+        <v>446.42857142857139</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="2"/>
+      <c r="H54">
+        <f t="shared" si="11"/>
+        <v>2237.1364653243845</v>
+      </c>
+      <c r="I54" s="11">
+        <f t="shared" si="10"/>
+        <v>447</v>
+      </c>
+      <c r="J54" s="12"/>
+      <c r="K54">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="11">
+        <v>52</v>
+      </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>57</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2280</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="9"/>
+        <v>438.59649122807019</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="2"/>
+      <c r="H55">
+        <f t="shared" si="11"/>
+        <v>2277.9043280182232</v>
+      </c>
+      <c r="I55" s="11">
+        <f t="shared" si="10"/>
+        <v>439</v>
+      </c>
+      <c r="J55" s="12"/>
+      <c r="K55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="11">
+        <v>53</v>
+      </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>58</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2320</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="9"/>
+        <v>431.0344827586207</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="2"/>
+      <c r="H56">
+        <f t="shared" si="11"/>
+        <v>2314.8148148148148</v>
+      </c>
+      <c r="I56" s="11">
+        <f t="shared" si="10"/>
+        <v>432</v>
+      </c>
+      <c r="J56" s="12"/>
+      <c r="K56">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="11">
+        <v>54</v>
+      </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>59</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2360</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="9"/>
+        <v>423.72881355932202</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="2"/>
+      <c r="H57">
+        <f t="shared" si="11"/>
+        <v>2358.4905660377358</v>
+      </c>
+      <c r="I57" s="11">
+        <f t="shared" si="10"/>
+        <v>424</v>
+      </c>
+      <c r="J57" s="12"/>
+      <c r="K57">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="11">
+        <v>55</v>
+      </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>60</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2400</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="9"/>
+        <v>416.66666666666669</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="2"/>
+      <c r="H58">
+        <f t="shared" si="11"/>
+        <v>2398.0815347721823</v>
+      </c>
+      <c r="I58" s="11">
+        <f t="shared" si="10"/>
+        <v>417</v>
+      </c>
+      <c r="J58" s="12"/>
+      <c r="K58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="11">
+        <v>56</v>
+      </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>61</v>
+      </c>
+      <c r="B59" s="1">
+        <v>2440</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="9"/>
+        <v>409.8360655737705</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="2"/>
+      <c r="H59">
+        <f t="shared" si="11"/>
+        <v>2439.0243902439024</v>
+      </c>
+      <c r="I59" s="11">
+        <f t="shared" si="10"/>
+        <v>410</v>
+      </c>
+      <c r="J59" s="12"/>
+      <c r="K59">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L59" s="11">
+        <v>57</v>
+      </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>62</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2480</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="9"/>
+        <v>403.22580645161293</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="2"/>
+      <c r="H60">
+        <f t="shared" si="11"/>
+        <v>2475.2475247524753</v>
+      </c>
+      <c r="I60" s="11">
+        <f t="shared" si="10"/>
+        <v>404</v>
+      </c>
+      <c r="J60" s="12"/>
+      <c r="K60">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L60" s="11">
+        <v>58</v>
+      </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>63</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2520</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="9"/>
+        <v>396.82539682539681</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="2"/>
+      <c r="H61">
+        <f t="shared" si="11"/>
+        <v>2518.8916876574308</v>
+      </c>
+      <c r="I61" s="11">
+        <f t="shared" si="10"/>
+        <v>397</v>
+      </c>
+      <c r="J61" s="12"/>
+      <c r="K61">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L61" s="11">
+        <v>59</v>
+      </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>64</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2560</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="9"/>
+        <v>390.625</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="2"/>
+      <c r="H62">
+        <f t="shared" si="11"/>
+        <v>2557.5447570332485</v>
+      </c>
+      <c r="I62" s="11">
+        <f t="shared" si="10"/>
+        <v>391</v>
+      </c>
+      <c r="J62" s="12"/>
+      <c r="K62">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="11">
+        <v>60</v>
+      </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>65</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2600</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="9"/>
+        <v>384.61538461538464</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="2"/>
+      <c r="H63">
+        <f t="shared" si="11"/>
+        <v>2597.4025974025976</v>
+      </c>
+      <c r="I63" s="11">
+        <f t="shared" si="10"/>
+        <v>385</v>
+      </c>
+      <c r="J63" s="12"/>
+      <c r="K63">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L63" s="11">
+        <v>61</v>
+      </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>66</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2640</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="9"/>
+        <v>378.78787878787881</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="2"/>
+      <c r="H64">
+        <f t="shared" si="11"/>
+        <v>2638.5224274406332</v>
+      </c>
+      <c r="I64" s="11">
+        <f t="shared" si="10"/>
+        <v>379</v>
+      </c>
+      <c r="J64" s="12"/>
+      <c r="K64">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L64" s="11">
+        <v>62</v>
+      </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>67</v>
+      </c>
+      <c r="B65" s="1">
+        <v>2680</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" ref="C65:C73" si="12">1/B65*1000000</f>
+        <v>373.13432835820896</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="2"/>
+      <c r="H65">
+        <f t="shared" si="11"/>
+        <v>2673.79679144385</v>
+      </c>
+      <c r="I65" s="11">
+        <f t="shared" si="10"/>
+        <v>374</v>
+      </c>
+      <c r="J65" s="12"/>
+      <c r="K65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L65" s="11">
+        <v>63</v>
+      </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>68</v>
+      </c>
+      <c r="B66" s="1">
+        <v>2720</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="12"/>
+        <v>367.64705882352939</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="2"/>
+      <c r="H66">
+        <f t="shared" si="11"/>
+        <v>2717.391304347826</v>
+      </c>
+      <c r="I66" s="11">
+        <f t="shared" si="10"/>
+        <v>368</v>
+      </c>
+      <c r="J66" s="12"/>
+      <c r="K66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L66" s="11">
+        <v>64</v>
+      </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>69</v>
+      </c>
+      <c r="B67" s="1">
+        <v>2760</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="12"/>
+        <v>362.31884057971013</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="2"/>
+      <c r="H67">
+        <f t="shared" si="11"/>
+        <v>2754.8209366391184</v>
+      </c>
+      <c r="I67" s="11">
+        <f t="shared" si="10"/>
+        <v>363</v>
+      </c>
+      <c r="J67" s="12"/>
+      <c r="K67">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L67" s="11">
+        <v>65</v>
+      </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>70</v>
+      </c>
+      <c r="B68" s="1">
+        <v>2800</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="12"/>
+        <v>357.14285714285717</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="2"/>
+      <c r="H68">
+        <f t="shared" si="11"/>
+        <v>2793.2960893854752</v>
+      </c>
+      <c r="I68" s="11">
+        <f t="shared" ref="I68:I73" si="13">ROUNDUP(C68,0)</f>
+        <v>358</v>
+      </c>
+      <c r="J68" s="12"/>
+      <c r="K68">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L68" s="11">
+        <v>66</v>
+      </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>71</v>
+      </c>
+      <c r="B69" s="1">
+        <v>2840</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="12"/>
+        <v>352.11267605633805</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="2"/>
+      <c r="H69">
+        <f t="shared" ref="H69:H73" si="14">1/I69*1000000</f>
+        <v>2832.8611898016998</v>
+      </c>
+      <c r="I69" s="11">
+        <f t="shared" si="13"/>
+        <v>353</v>
+      </c>
+      <c r="J69" s="12"/>
+      <c r="K69">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L69" s="11">
+        <v>67</v>
+      </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>72</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2880</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="12"/>
+        <v>347.22222222222223</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="2"/>
+      <c r="H70">
+        <f t="shared" si="14"/>
+        <v>2873.5632183908046</v>
+      </c>
+      <c r="I70" s="11">
+        <f t="shared" si="13"/>
+        <v>348</v>
+      </c>
+      <c r="J70" s="12"/>
+      <c r="K70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="11">
+        <v>68</v>
+      </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>73</v>
+      </c>
+      <c r="B71" s="1">
+        <v>2920</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="12"/>
+        <v>342.46575342465752</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="2"/>
+      <c r="H71">
+        <f t="shared" si="14"/>
+        <v>2915.4518950437318</v>
+      </c>
+      <c r="I71" s="11">
+        <f t="shared" si="13"/>
+        <v>343</v>
+      </c>
+      <c r="J71" s="12"/>
+      <c r="K71">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L71" s="11">
+        <v>69</v>
+      </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>74</v>
+      </c>
+      <c r="B72" s="1">
+        <v>2960</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" si="12"/>
+        <v>337.83783783783787</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="2"/>
+      <c r="H72">
+        <f t="shared" si="14"/>
+        <v>2958.5798816568044</v>
+      </c>
+      <c r="I72" s="11">
+        <f t="shared" si="13"/>
+        <v>338</v>
+      </c>
+      <c r="J72" s="12"/>
+      <c r="K72">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="11">
+        <v>70</v>
+      </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>75</v>
+      </c>
+      <c r="B73" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" si="12"/>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="2"/>
+      <c r="H73">
+        <f t="shared" si="14"/>
+        <v>2994.0119760479042</v>
+      </c>
+      <c r="I73" s="11">
+        <f t="shared" si="13"/>
+        <v>334</v>
+      </c>
+      <c r="J73" s="12"/>
+      <c r="K73">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L73" s="11">
+        <v>71</v>
+      </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -10181,27 +14900,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1D15B5-A6A6-496A-B2B2-0C52CE8D3F5D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65BA3D75-590D-4E01-9070-2E13EF8BFE53}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="A1:E23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10212,6 +14915,7 @@
     <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -10219,22 +14923,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="H1" t="s">
         <v>16</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -10259,6 +14966,13 @@
       <c r="G2" s="8">
         <v>16.212379662449301</v>
       </c>
+      <c r="H2" s="6">
+        <v>373.5625</v>
+      </c>
+      <c r="I2" s="11">
+        <f>C2-H2</f>
+        <v>16.081250000000011</v>
+      </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -10282,8 +14996,13 @@
       <c r="G3" s="8">
         <v>6.1994799217063896</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="6">
+        <v>302.48500000000001</v>
+      </c>
+      <c r="I3" s="11">
+        <f t="shared" ref="I3:I23" si="0">C3-H3</f>
+        <v>9.25</v>
+      </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
@@ -10314,8 +15033,13 @@
       <c r="G4" s="8">
         <v>6.4429156459154902</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="H4" s="6">
+        <v>253.89947700000002</v>
+      </c>
+      <c r="I4" s="11">
+        <f t="shared" si="0"/>
+        <v>6.2004960000000153</v>
+      </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -10346,8 +15070,13 @@
       <c r="G5" s="8">
         <v>3.4009593119310302</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="H5" s="6">
+        <v>218.81000399999996</v>
+      </c>
+      <c r="I5" s="11">
+        <f t="shared" si="0"/>
+        <v>5.9938160000000096</v>
+      </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
@@ -10378,8 +15107,13 @@
       <c r="G6" s="8">
         <v>2.4363095817896099</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="H6" s="6">
+        <v>191.77187499999999</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" si="0"/>
+        <v>5.8562500000000171</v>
+      </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
@@ -10410,8 +15144,13 @@
       <c r="G7" s="8">
         <v>2.1643141369056398</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="H7" s="6">
+        <v>170.18305800000002</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" si="0"/>
+        <v>5.761572000000001</v>
+      </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
@@ -10442,8 +15181,13 @@
       <c r="G8" s="8">
         <v>2.1967323589023602</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="H8" s="6">
+        <v>153.9675</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" si="0"/>
+        <v>5.6949999999999932</v>
+      </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
@@ -10474,8 +15218,13 @@
       <c r="G9" s="8">
         <v>2.15821763569675</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="H9" s="6">
+        <v>140.48276499999997</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" si="0"/>
+        <v>2.9412619999999947</v>
+      </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
@@ -10506,8 +15255,13 @@
       <c r="G10" s="8">
         <v>2.19944143780836</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="H10" s="6">
+        <v>129.70607600000002</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="0"/>
+        <v>2.8667779999999539</v>
+      </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
@@ -10538,8 +15292,13 @@
       <c r="G11" s="8">
         <v>2.18471846914899</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="H11" s="6">
+        <v>118.92051599999999</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="0"/>
+        <v>2.7012959999999993</v>
+      </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
@@ -10570,8 +15329,13 @@
       <c r="G12" s="8">
         <v>2.1986445153728802</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="H12" s="6">
+        <v>110.78022199999998</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" si="0"/>
+        <v>2.7004320000000064</v>
+      </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -10602,8 +15366,13 @@
       <c r="G13" s="8">
         <v>2.20296187623845</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="H13" s="6">
+        <v>102.68219900000001</v>
+      </c>
+      <c r="I13" s="11">
+        <f t="shared" si="0"/>
+        <v>5.4010799999999932</v>
+      </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
@@ -10634,8 +15403,13 @@
       <c r="G14" s="8">
         <v>2.1994092317612699</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="H14" s="6">
+        <v>97.292061000000004</v>
+      </c>
+      <c r="I14" s="11">
+        <f t="shared" si="0"/>
+        <v>2.7008639999999957</v>
+      </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
@@ -10666,8 +15440,13 @@
       <c r="G15" s="8">
         <v>2.20021136956119</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
+      <c r="H15" s="6">
+        <v>91.886015</v>
+      </c>
+      <c r="I15" s="11">
+        <f t="shared" si="0"/>
+        <v>2.7007559999999984</v>
+      </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
@@ -10698,8 +15477,13 @@
       <c r="G16" s="8">
         <v>2.2008451582039701</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="H16" s="6">
+        <v>86.466639000000001</v>
+      </c>
+      <c r="I16" s="11">
+        <f t="shared" si="0"/>
+        <v>2.7002159999999975</v>
+      </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
@@ -10730,8 +15514,13 @@
       <c r="G17" s="8">
         <v>2.2006481796600599</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
+      <c r="H17" s="6">
+        <v>83.772611999999995</v>
+      </c>
+      <c r="I17" s="11">
+        <f t="shared" si="0"/>
+        <v>2.7004319999999922</v>
+      </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
@@ -10756,8 +15545,13 @@
       <c r="E18" s="6">
         <v>180</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
+      <c r="H18" s="6">
+        <v>78.358750000000001</v>
+      </c>
+      <c r="I18" s="11">
+        <f t="shared" si="0"/>
+        <v>2.7000000000000028</v>
+      </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
@@ -10782,8 +15576,13 @@
       <c r="E19" s="6">
         <v>174</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
+      <c r="H19" s="6">
+        <v>75.691622999999993</v>
+      </c>
+      <c r="I19" s="11">
+        <f t="shared" si="0"/>
+        <v>2.7011880000000019</v>
+      </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
@@ -10808,8 +15607,13 @@
       <c r="E20" s="6">
         <v>162</v>
       </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
+      <c r="H20" s="6">
+        <v>72.998811000000003</v>
+      </c>
+      <c r="I20" s="11">
+        <f t="shared" si="0"/>
+        <v>-6.1398000000011166E-2</v>
+      </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
@@ -10834,8 +15638,13 @@
       <c r="E21" s="6">
         <v>156</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
+      <c r="H21" s="6">
+        <v>70.260419000000013</v>
+      </c>
+      <c r="I21" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
@@ -10860,8 +15669,13 @@
       <c r="E22" s="6">
         <v>150</v>
       </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
+      <c r="H22" s="6">
+        <v>67.578910000000008</v>
+      </c>
+      <c r="I22" s="11">
+        <f t="shared" si="0"/>
+        <v>5.2099999999981605E-2</v>
+      </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
@@ -10886,6 +15700,13 @@
       <c r="E23" s="6">
         <v>150</v>
       </c>
+      <c r="H23" s="6">
+        <v>64.856999999999999</v>
+      </c>
+      <c r="I23" s="11">
+        <f t="shared" si="0"/>
+        <v>9.7999999999998977E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -10894,7 +15715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A778130-3D55-4681-BC9B-C0CFD0D72F17}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -10910,12 +15731,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E62CD7-0F75-45A2-BA1A-AFAB0AA7A42B}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/multicore_novo.xlsx
+++ b/multicore_novo.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melis\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80704B3-ADE1-4492-A7C7-6FDE686A4508}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57C30E5-0B7D-49F3-B64F-49CE0C9CB51B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-1305" windowWidth="24240" windowHeight="13290" tabRatio="483" xr2:uid="{7C13D048-D369-4CF7-941B-2AB5863FD600}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="483" activeTab="1" xr2:uid="{7C13D048-D369-4CF7-941B-2AB5863FD600}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha3" sheetId="3" r:id="rId2"/>
-    <sheet name="Planilha4" sheetId="4" r:id="rId3"/>
-    <sheet name="Planilha5" sheetId="5" r:id="rId4"/>
+    <sheet name="Planilha2" sheetId="6" r:id="rId2"/>
+    <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
+    <sheet name="Planilha4" sheetId="4" r:id="rId4"/>
+    <sheet name="Planilha5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>clocks</t>
   </si>
@@ -87,26 +88,47 @@
     <t>NOVO Tempo de Atraso</t>
   </si>
   <si>
-    <t>janela entre ins</t>
-  </si>
-  <si>
-    <t>1 proc</t>
-  </si>
-  <si>
     <t>Memoria</t>
   </si>
   <si>
-    <t>Diferença</t>
+    <t>Antigo</t>
   </si>
   <si>
-    <t>Antigo</t>
+    <t>EL29</t>
+  </si>
+  <si>
+    <t>MLT29</t>
+  </si>
+  <si>
+    <t>29b/32b</t>
+  </si>
+  <si>
+    <t>29 bits</t>
+  </si>
+  <si>
+    <t>32 bits</t>
+  </si>
+  <si>
+    <t>num. de procs</t>
+  </si>
+  <si>
+    <t>EL</t>
+  </si>
+  <si>
+    <t>MLT</t>
+  </si>
+  <si>
+    <t>a partir de 21 processadores demora cerca de 3x mais pra fazer analise de sintese no de 29 bits</t>
+  </si>
+  <si>
+    <t>no modelsim, as duas configurações de bits tem a saida correta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,14 +151,6 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="8" tint="-0.249977111117893"/>
       <name val="Calibri"/>
@@ -151,6 +165,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -160,7 +197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -168,11 +205,143 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -184,9 +353,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -199,23 +365,126 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10975,16 +11244,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>162792</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>96117</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11013,16 +11282,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11051,16 +11320,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11090,15 +11359,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
+      <xdr:colOff>161924</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11128,13 +11397,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -11936,10 +12205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104259CF-4DA1-435F-859F-CDADF407460C}">
-  <dimension ref="A1:AO78"/>
+  <dimension ref="A1:AN79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI3" sqref="AI3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AF48" sqref="AF48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11950,13 +12219,13 @@
     <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
     <col min="13" max="13" width="17.7109375" customWidth="1"/>
     <col min="14" max="14" width="14.28515625" customWidth="1"/>
     <col min="15" max="15" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12000,17 +12269,19 @@
         <v>15</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="1"/>
+      <c r="Q1" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="AN1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -12021,13 +12292,13 @@
         <f>1/B2*1000000</f>
         <v>6250</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="12">
         <v>373562.5</v>
       </c>
       <c r="E2" s="1">
         <v>373562.5</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="12">
         <v>2700</v>
       </c>
       <c r="G2" s="2">
@@ -12038,34 +12309,40 @@
         <f>1/I2*1000000</f>
         <v>160</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="10">
         <f>ROUNDUP(C2,0)</f>
         <v>6250</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="13">
         <v>93.75</v>
       </c>
       <c r="K2">
         <f>E2/1000</f>
         <v>373.5625</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="10">
         <v>0</v>
       </c>
-      <c r="M2" s="16">
+      <c r="M2" s="14">
         <v>93159</v>
       </c>
-      <c r="N2" s="17">
+      <c r="N2" s="15">
         <v>532</v>
       </c>
-      <c r="O2" s="18">
+      <c r="O2" s="16">
         <v>13719156</v>
       </c>
-      <c r="AN2" s="6">
+      <c r="P2" s="4">
+        <v>120821</v>
+      </c>
+      <c r="Q2">
+        <v>532</v>
+      </c>
+      <c r="AN2" s="5">
         <v>101665</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -12076,52 +12353,52 @@
         <f>1/B3*1000000</f>
         <v>5000</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="12">
         <v>298860</v>
       </c>
       <c r="E3" s="1">
         <f>G3*F3+J3</f>
         <v>302485</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="12">
         <v>2700</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G23" si="0">ROUNDUP(D3/F3,0)+1</f>
+        <f t="shared" ref="G3:G66" si="0">ROUNDUP(D3/F3,0)+1</f>
         <v>112</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H21" si="1">1/I3*1000000</f>
         <v>200</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <f t="shared" ref="I3:I20" si="2">ROUNDUP(C3,0)</f>
         <v>5000</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="13">
         <v>85</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K20" si="3">E3/1000</f>
         <v>302.48500000000001</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="10">
         <v>1</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="14">
         <v>71888</v>
       </c>
-      <c r="N3" s="17">
+      <c r="N3" s="15">
         <v>532</v>
       </c>
-      <c r="O3" s="18">
+      <c r="O3" s="16">
         <v>11087632</v>
       </c>
-      <c r="AN3" s="6">
+      <c r="AN3" s="5">
         <v>76576</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -12132,14 +12409,14 @@
         <f t="shared" ref="C4:C23" si="4">1/B4*1000000</f>
         <v>4166.666666666667</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="12">
         <v>249078.258</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ref="E4:E23" si="5">G4*F4+J4</f>
         <v>253899.47700000001</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="12">
         <v>2700.2159999999999</v>
       </c>
       <c r="G4" s="2">
@@ -12150,34 +12427,34 @@
         <f t="shared" si="1"/>
         <v>239.98080153587713</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <f t="shared" si="2"/>
         <v>4167</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="13">
         <v>79.173000000000002</v>
       </c>
       <c r="K4">
         <f t="shared" si="3"/>
         <v>253.89947700000002</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="10">
         <v>2</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="17">
         <v>58330</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="12">
         <v>532</v>
       </c>
-      <c r="O4" s="18">
+      <c r="O4" s="16">
         <v>9400042</v>
       </c>
-      <c r="AN4" s="6">
+      <c r="AN4" s="5">
         <v>61612</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>7</v>
       </c>
@@ -12188,14 +12465,14 @@
         <f t="shared" si="4"/>
         <v>3571.4285714285711</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <v>213519.872</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="5"/>
         <v>218810.00399999996</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="12">
         <v>2700.4319999999998</v>
       </c>
       <c r="G5" s="2">
@@ -12206,34 +12483,34 @@
         <f t="shared" si="1"/>
         <v>279.95520716685331</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <f t="shared" si="2"/>
         <v>3572</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="13">
         <v>75.012</v>
       </c>
       <c r="K5">
         <f t="shared" si="3"/>
         <v>218.81000399999996</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="10">
         <v>3</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="17">
         <v>57149</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="12">
         <v>400</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="16">
         <v>8181341</v>
       </c>
-      <c r="AN5" s="6">
+      <c r="AN5" s="5">
         <v>60352</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>8</v>
       </c>
@@ -12244,14 +12521,14 @@
         <f t="shared" si="4"/>
         <v>3125</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="12">
         <v>186806.25</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="5"/>
         <v>191771.875</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="12">
         <v>2700</v>
       </c>
       <c r="G6" s="2">
@@ -12262,34 +12539,34 @@
         <f t="shared" si="1"/>
         <v>320</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <f t="shared" si="2"/>
         <v>3125</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="13">
         <v>71.875</v>
       </c>
       <c r="K6">
         <f t="shared" si="3"/>
         <v>191.77187499999999</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="10">
         <v>4</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="17">
         <v>49590</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="12">
         <v>400</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="16">
         <v>7242537</v>
       </c>
-      <c r="AN6" s="6">
+      <c r="AN6" s="5">
         <v>52500</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>9</v>
       </c>
@@ -12300,14 +12577,14 @@
         <f t="shared" si="4"/>
         <v>2777.7777777777778</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <v>166068.84</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="5"/>
         <v>170183.05800000002</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <v>2700.2159999999999</v>
       </c>
       <c r="G7" s="2">
@@ -12318,34 +12595,34 @@
         <f t="shared" si="1"/>
         <v>359.97120230381569</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <f t="shared" si="2"/>
         <v>2778</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="13">
         <v>69.45</v>
       </c>
       <c r="K7">
         <f t="shared" si="3"/>
         <v>170.18305800000002</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="10">
         <v>5</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="17">
         <v>49607</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="12">
         <v>308</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O7" s="16">
         <v>6489647</v>
       </c>
-      <c r="AN7" s="6">
+      <c r="AN7" s="5">
         <v>47234</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -12356,14 +12633,14 @@
         <f t="shared" si="4"/>
         <v>2500</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <v>149455</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="5"/>
         <v>153967.5</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="12">
         <v>2700</v>
       </c>
       <c r="G8" s="2">
@@ -12374,34 +12651,34 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <f t="shared" si="2"/>
         <v>2500</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="13">
         <v>67.5</v>
       </c>
       <c r="K8">
         <f t="shared" si="3"/>
         <v>153.9675</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="10">
         <v>6</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="17">
         <v>45052</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="12">
         <v>308</v>
       </c>
-      <c r="O8" s="18">
+      <c r="O8" s="16">
         <v>5926827</v>
       </c>
-      <c r="AN8" s="6">
+      <c r="AN8" s="5">
         <v>47750</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>11</v>
       </c>
@@ -12412,14 +12689,14 @@
         <f t="shared" si="4"/>
         <v>2272.7272727272725</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>135889.03200000001</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="5"/>
         <v>140482.76499999998</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="12">
         <v>2700.3240000000001</v>
       </c>
       <c r="G9" s="2">
@@ -12430,34 +12707,34 @@
         <f t="shared" si="1"/>
         <v>439.9472063352398</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <f t="shared" si="2"/>
         <v>2273</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="13">
         <v>65.917000000000002</v>
       </c>
       <c r="K9">
         <f t="shared" si="3"/>
         <v>140.48276499999997</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="10">
         <v>7</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="17">
         <v>41267</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="12">
         <v>308</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O9" s="16">
         <v>5460964</v>
       </c>
-      <c r="AN9" s="6">
+      <c r="AN9" s="5">
         <v>43048</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>12</v>
       </c>
@@ -12468,14 +12745,14 @@
         <f t="shared" si="4"/>
         <v>2083.3333333333335</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <v>124594.024</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="5"/>
         <v>129706.07600000002</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="12">
         <v>2700.864</v>
       </c>
       <c r="G10" s="2">
@@ -12486,34 +12763,34 @@
         <f t="shared" si="1"/>
         <v>479.84644913627636</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <f t="shared" si="2"/>
         <v>2084</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="13">
         <v>64.603999999999999</v>
       </c>
       <c r="K10">
         <f t="shared" si="3"/>
         <v>129.70607600000002</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="10">
         <v>8</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="17">
         <v>39684</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="12">
         <v>288</v>
       </c>
-      <c r="O10" s="18">
+      <c r="O10" s="16">
         <v>5089136</v>
       </c>
-      <c r="AN10" s="6">
+      <c r="AN10" s="5">
         <v>41088</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>13</v>
       </c>
@@ -12524,14 +12801,14 @@
         <f t="shared" si="4"/>
         <v>1923.0769230769231</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>115032.11199999999</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="5"/>
         <v>118920.51599999999</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="12">
         <v>2701.2959999999998</v>
       </c>
       <c r="G11" s="2">
@@ -12542,34 +12819,34 @@
         <f t="shared" si="1"/>
         <v>519.75051975051974</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="10">
         <f t="shared" si="2"/>
         <v>1924</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="13">
         <v>63.491999999999997</v>
       </c>
       <c r="K11">
         <f t="shared" si="3"/>
         <v>118.92051599999999</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="10">
         <v>9</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11" s="17">
         <v>38241</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="12">
         <v>264</v>
       </c>
-      <c r="O11" s="18">
+      <c r="O11" s="16">
         <v>4709100</v>
       </c>
-      <c r="AN11" s="6">
+      <c r="AN11" s="5">
         <v>39557</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>14</v>
       </c>
@@ -12580,14 +12857,14 @@
         <f t="shared" si="4"/>
         <v>1785.7142857142856</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>106784.94</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="5"/>
         <v>110780.22199999998</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="12">
         <v>2700.4319999999998</v>
       </c>
       <c r="G12" s="2">
@@ -12598,34 +12875,34 @@
         <f t="shared" si="1"/>
         <v>559.91041433370663</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="10">
         <f t="shared" si="2"/>
         <v>1786</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="13">
         <v>62.51</v>
       </c>
       <c r="K12">
         <f t="shared" si="3"/>
         <v>110.78022199999998</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="10">
         <v>10</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M12" s="17">
         <v>37974</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N12" s="12">
         <v>232</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="16">
         <v>4429203</v>
       </c>
-      <c r="AN12" s="6">
+      <c r="AN12" s="5">
         <v>39564</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>15</v>
       </c>
@@ -12636,14 +12913,14 @@
         <f t="shared" si="4"/>
         <v>1666.6666666666667</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="12">
         <v>99673.263999999996</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="5"/>
         <v>102682.19900000001</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="12">
         <v>2700.54</v>
       </c>
       <c r="G13" s="2">
@@ -12654,34 +12931,34 @@
         <f t="shared" si="1"/>
         <v>599.88002399520087</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="10">
         <f t="shared" si="2"/>
         <v>1667</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="13">
         <v>61.679000000000002</v>
       </c>
       <c r="K13">
         <f t="shared" si="3"/>
         <v>102.68219900000001</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="10">
         <v>11</v>
       </c>
-      <c r="M13" s="19">
+      <c r="M13" s="17">
         <v>36064</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13" s="14">
         <v>228</v>
       </c>
-      <c r="O13" s="18">
+      <c r="O13" s="16">
         <v>4143150</v>
       </c>
-      <c r="AN13" s="6">
+      <c r="AN13" s="5">
         <v>38043</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>16</v>
       </c>
@@ -12692,14 +12969,14 @@
         <f t="shared" si="4"/>
         <v>1562.5</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="12">
         <v>93458.021999999997</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="5"/>
         <v>97292.061000000002</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="12">
         <v>2700.864</v>
       </c>
       <c r="G14" s="2">
@@ -12710,34 +12987,34 @@
         <f t="shared" si="1"/>
         <v>639.79526551503511</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="10">
         <f t="shared" si="2"/>
         <v>1563</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="13">
         <v>60.957000000000001</v>
       </c>
       <c r="K14">
         <f t="shared" si="3"/>
         <v>97.292061000000004</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="10">
         <v>12</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M14" s="17">
         <v>35321</v>
       </c>
-      <c r="N14" s="16">
+      <c r="N14" s="14">
         <v>216</v>
       </c>
-      <c r="O14" s="18">
+      <c r="O14" s="16">
         <v>3961340</v>
       </c>
-      <c r="AN14" s="6">
+      <c r="AN14" s="5">
         <v>36477</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>17</v>
       </c>
@@ -12748,14 +13025,14 @@
         <f t="shared" si="4"/>
         <v>1470.5882352941176</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="12">
         <v>87959.915999999997</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="5"/>
         <v>91886.014999999999</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="12">
         <v>2700.7559999999999</v>
       </c>
       <c r="G15" s="2">
@@ -12766,34 +13043,34 @@
         <f t="shared" si="1"/>
         <v>679.80965329707681</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="10">
         <f t="shared" si="2"/>
         <v>1471</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="13">
         <v>60.311</v>
       </c>
       <c r="K15">
         <f t="shared" si="3"/>
         <v>91.886015</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="10">
         <v>13</v>
       </c>
-      <c r="M15" s="19">
+      <c r="M15" s="17">
         <v>34615</v>
       </c>
-      <c r="N15" s="16">
+      <c r="N15" s="14">
         <v>204</v>
       </c>
-      <c r="O15" s="18">
+      <c r="O15" s="16">
         <v>3775426</v>
       </c>
-      <c r="AN15" s="6">
+      <c r="AN15" s="5">
         <v>35712</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>18</v>
       </c>
@@ -12804,14 +13081,14 @@
         <f t="shared" si="4"/>
         <v>1388.8888888888889</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="12">
         <v>83059.422000000006</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="5"/>
         <v>86466.638999999996</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="12">
         <v>2700.2159999999999</v>
       </c>
       <c r="G16" s="2">
@@ -12822,30 +13099,30 @@
         <f t="shared" si="1"/>
         <v>719.94240460763137</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="10">
         <f t="shared" si="2"/>
         <v>1389</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="13">
         <v>59.726999999999997</v>
       </c>
       <c r="K16">
         <f t="shared" si="3"/>
         <v>86.466639000000001</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="10">
         <v>14</v>
       </c>
-      <c r="M16" s="19">
+      <c r="M16" s="17">
         <v>33880</v>
       </c>
-      <c r="N16" s="16">
+      <c r="N16" s="14">
         <v>192</v>
       </c>
-      <c r="O16" s="18">
+      <c r="O16" s="16">
         <v>3585408</v>
       </c>
-      <c r="AN16" s="6">
+      <c r="AN16" s="5">
         <v>34946</v>
       </c>
     </row>
@@ -12860,14 +13137,14 @@
         <f t="shared" si="4"/>
         <v>1315.7894736842104</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="12">
         <v>78696.800000000003</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="5"/>
         <v>83772.611999999994</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="12">
         <v>2700.4319999999998</v>
       </c>
       <c r="G17" s="2">
@@ -12878,30 +13155,30 @@
         <f t="shared" si="1"/>
         <v>759.87841945288756</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="10">
         <f t="shared" si="2"/>
         <v>1316</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="13">
         <v>59.22</v>
       </c>
       <c r="K17">
         <f t="shared" si="3"/>
         <v>83.772611999999995</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="10">
         <v>15</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M17" s="17">
         <v>33510</v>
       </c>
-      <c r="N17" s="16">
+      <c r="N17" s="14">
         <v>186</v>
       </c>
-      <c r="O17" s="18">
+      <c r="O17" s="16">
         <v>3504763</v>
       </c>
-      <c r="AN17" s="6">
+      <c r="AN17" s="5">
         <v>34554</v>
       </c>
     </row>
@@ -12916,14 +13193,14 @@
         <f t="shared" si="4"/>
         <v>1250</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="12">
         <v>74752.5</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="5"/>
         <v>78358.75</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="12">
         <v>2700</v>
       </c>
       <c r="G18" s="2">
@@ -12934,30 +13211,30 @@
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="10">
         <f t="shared" si="2"/>
         <v>1250</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="13">
         <v>58.75</v>
       </c>
       <c r="K18">
         <f t="shared" si="3"/>
         <v>78.358750000000001</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="10">
         <v>16</v>
       </c>
-      <c r="M18" s="19">
+      <c r="M18" s="17">
         <v>32786</v>
       </c>
-      <c r="N18" s="16">
+      <c r="N18" s="14">
         <v>174</v>
       </c>
-      <c r="O18" s="18">
+      <c r="O18" s="16">
         <v>3307563</v>
       </c>
-      <c r="AN18" s="6">
+      <c r="AN18" s="5">
         <v>35743</v>
       </c>
     </row>
@@ -12972,14 +13249,14 @@
         <f t="shared" si="4"/>
         <v>1190.4761904761906</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="12">
         <v>71226.563999999998</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="5"/>
         <v>75691.622999999992</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="12">
         <v>2701.1880000000001</v>
       </c>
       <c r="G19" s="2">
@@ -12990,30 +13267,30 @@
         <f t="shared" si="1"/>
         <v>839.63056255247693</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="10">
         <f t="shared" si="2"/>
         <v>1191</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="13">
         <v>58.359000000000002</v>
       </c>
       <c r="K19">
         <f t="shared" si="3"/>
         <v>75.691622999999993</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="10">
         <v>17</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M19" s="17">
         <v>32426</v>
       </c>
-      <c r="N19" s="16">
+      <c r="N19" s="14">
         <v>168</v>
       </c>
-      <c r="O19" s="18">
+      <c r="O19" s="16">
         <v>3221788</v>
       </c>
-      <c r="AN19" s="6">
+      <c r="AN19" s="5">
         <v>35177</v>
       </c>
     </row>
@@ -13028,14 +13305,14 @@
         <f t="shared" si="4"/>
         <v>1136.3636363636363</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="12">
         <v>67999.422000000006</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="5"/>
         <v>72998.811000000002</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="12">
         <v>2701.5120000000002</v>
       </c>
       <c r="G20" s="2">
@@ -13046,31 +13323,31 @@
         <f t="shared" si="1"/>
         <v>879.50747581354449</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="10">
         <f t="shared" si="2"/>
         <v>1137</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="13">
         <v>57.987000000000002</v>
       </c>
       <c r="K20">
         <f t="shared" si="3"/>
         <v>72.998811000000003</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="10">
         <v>18</v>
       </c>
-      <c r="M20" s="19">
+      <c r="M20" s="17">
         <v>34317</v>
       </c>
-      <c r="N20" s="16">
+      <c r="N20" s="14">
         <v>162</v>
       </c>
-      <c r="O20" s="18">
+      <c r="O20" s="16">
         <v>3133961</v>
       </c>
       <c r="Q20" s="4"/>
-      <c r="AN20" s="6">
+      <c r="AN20" s="5">
         <v>33993</v>
       </c>
     </row>
@@ -13085,14 +13362,14 @@
         <f t="shared" si="4"/>
         <v>1086.9565217391305</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="12">
         <v>65011.296000000002</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="5"/>
         <v>70260.419000000009</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="12">
         <v>2700.1080000000002</v>
       </c>
       <c r="G21" s="2">
@@ -13103,30 +13380,30 @@
         <f t="shared" si="1"/>
         <v>919.96320147194115</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="10">
         <f t="shared" ref="I21:I26" si="6">ROUNDUP(C21,0)</f>
         <v>1087</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="13">
         <v>57.610999999999997</v>
       </c>
       <c r="K21">
-        <f t="shared" ref="K21:K73" si="7">E21/1000</f>
+        <f t="shared" ref="K21:K72" si="7">E21/1000</f>
         <v>70.260419000000013</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="10">
         <v>19</v>
       </c>
-      <c r="M21" s="19">
+      <c r="M21" s="17">
         <v>33633</v>
       </c>
-      <c r="N21" s="19">
+      <c r="N21" s="17">
         <v>156</v>
       </c>
-      <c r="O21" s="18">
+      <c r="O21" s="16">
         <v>3044082</v>
       </c>
-      <c r="AN21" s="6">
+      <c r="AN21" s="5">
         <v>33389</v>
       </c>
     </row>
@@ -13141,14 +13418,14 @@
         <f t="shared" si="4"/>
         <v>1041.6666666666667</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="12">
         <v>62322.02</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="5"/>
         <v>67578.91</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="12">
         <v>2700.864</v>
       </c>
       <c r="G22" s="2">
@@ -13159,30 +13436,30 @@
         <f t="shared" ref="H22:H27" si="8">1/I22*1000000</f>
         <v>959.69289827255272</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="10">
         <f t="shared" si="6"/>
         <v>1042</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="13">
         <v>57.31</v>
       </c>
       <c r="K22">
         <f t="shared" si="7"/>
         <v>67.578910000000008</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="10">
         <v>20</v>
       </c>
-      <c r="M22" s="19">
+      <c r="M22" s="17">
         <v>32943</v>
       </c>
-      <c r="N22" s="19">
+      <c r="N22" s="17">
         <v>150</v>
       </c>
-      <c r="O22" s="18">
+      <c r="O22" s="16">
         <v>2952151</v>
       </c>
-      <c r="AN22" s="6">
+      <c r="AN22" s="5">
         <v>33649</v>
       </c>
     </row>
@@ -13197,14 +13474,14 @@
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="12">
         <v>59812</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="5"/>
         <v>64857</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="12">
         <v>2700</v>
       </c>
       <c r="G23" s="2">
@@ -13215,30 +13492,30 @@
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="10">
         <f t="shared" si="6"/>
         <v>1000</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J23" s="13">
         <v>57</v>
       </c>
       <c r="K23">
         <f t="shared" si="7"/>
         <v>64.856999999999999</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L23" s="10">
         <v>21</v>
       </c>
-      <c r="M23" s="19">
+      <c r="M23" s="17">
         <v>32216</v>
       </c>
-      <c r="N23" s="19">
+      <c r="N23" s="17">
         <v>144</v>
       </c>
-      <c r="O23" s="18">
+      <c r="O23" s="16">
         <v>2858168</v>
       </c>
-      <c r="AN23" s="6">
+      <c r="AN23" s="5">
         <v>33649</v>
       </c>
     </row>
@@ -13253,28 +13530,32 @@
         <f t="shared" ref="C24:C64" si="9">1/B24*1000000</f>
         <v>961.53846153846155</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="2"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H24">
         <f t="shared" si="8"/>
         <v>1039.5010395010395</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="10">
         <f t="shared" si="6"/>
         <v>962</v>
       </c>
-      <c r="J24" s="12"/>
+      <c r="J24" s="24"/>
       <c r="K24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="10">
         <v>22</v>
       </c>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="19"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -13287,27 +13568,32 @@
         <f t="shared" si="9"/>
         <v>925.92592592592598</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="2"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H25">
         <f t="shared" si="8"/>
         <v>1079.9136069114472</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="10">
         <f t="shared" si="6"/>
         <v>926</v>
       </c>
-      <c r="J25" s="12"/>
+      <c r="J25" s="24"/>
       <c r="K25">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L25" s="10">
         <v>23</v>
       </c>
-      <c r="M25" s="11"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -13320,26 +13606,32 @@
         <f t="shared" si="9"/>
         <v>892.85714285714278</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="2"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H26">
         <f t="shared" si="8"/>
         <v>1119.8208286674133</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="10">
         <f t="shared" si="6"/>
         <v>893</v>
       </c>
-      <c r="J26" s="12"/>
+      <c r="J26" s="24"/>
       <c r="K26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L26" s="10">
         <v>24</v>
       </c>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -13352,26 +13644,32 @@
         <f t="shared" si="9"/>
         <v>862.06896551724139</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="2"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H27">
         <f t="shared" si="8"/>
         <v>1158.7485515643104</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="10">
         <f t="shared" ref="I27:I67" si="10">ROUNDUP(C27,0)</f>
         <v>863</v>
       </c>
-      <c r="J27" s="12"/>
+      <c r="J27" s="24"/>
       <c r="K27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L27" s="10">
         <v>25</v>
       </c>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -13384,28 +13682,32 @@
         <f t="shared" si="9"/>
         <v>833.33333333333337</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="2"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H28">
         <f t="shared" ref="H28:H68" si="11">1/I28*1000000</f>
         <v>1199.0407673860911</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="10">
         <f t="shared" si="10"/>
         <v>834</v>
       </c>
-      <c r="J28" s="12"/>
+      <c r="J28" s="24"/>
       <c r="K28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L28" s="10">
         <v>26</v>
       </c>
-      <c r="M28" s="5"/>
-      <c r="N28" s="6"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="19"/>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -13418,28 +13720,32 @@
         <f t="shared" si="9"/>
         <v>806.45161290322585</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="2"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H29">
         <f t="shared" si="11"/>
         <v>1239.1573729863692</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="10">
         <f t="shared" si="10"/>
         <v>807</v>
       </c>
-      <c r="J29" s="12"/>
+      <c r="J29" s="24"/>
       <c r="K29">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L29" s="11">
+      <c r="L29" s="10">
         <v>27</v>
       </c>
-      <c r="M29" s="5"/>
-      <c r="N29" s="6"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="19"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -13452,28 +13758,32 @@
         <f t="shared" si="9"/>
         <v>781.25</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="2"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H30">
         <f t="shared" si="11"/>
         <v>1278.7723785166243</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="10">
         <f t="shared" si="10"/>
         <v>782</v>
       </c>
-      <c r="J30" s="12"/>
+      <c r="J30" s="24"/>
       <c r="K30">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L30" s="11">
+      <c r="L30" s="10">
         <v>28</v>
       </c>
-      <c r="M30" s="13"/>
-      <c r="N30" s="1"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="19"/>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -13486,26 +13796,32 @@
         <f t="shared" si="9"/>
         <v>757.57575757575762</v>
       </c>
-      <c r="D31" s="1"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="2"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H31">
         <f t="shared" si="11"/>
         <v>1319.2612137203166</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="10">
         <f t="shared" si="10"/>
         <v>758</v>
       </c>
-      <c r="J31" s="12"/>
+      <c r="J31" s="24"/>
       <c r="K31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L31" s="11">
+      <c r="L31" s="10">
         <v>29</v>
       </c>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -13518,28 +13834,34 @@
         <f t="shared" si="9"/>
         <v>735.29411764705878</v>
       </c>
-      <c r="D32" s="1"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="2"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H32">
         <f t="shared" si="11"/>
         <v>1358.695652173913</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="10">
         <f t="shared" si="10"/>
         <v>736</v>
       </c>
-      <c r="J32" s="12"/>
+      <c r="J32" s="24"/>
       <c r="K32">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L32" s="11">
+      <c r="L32" s="10">
         <v>30</v>
       </c>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>35</v>
       </c>
@@ -13550,28 +13872,34 @@
         <f t="shared" si="9"/>
         <v>714.28571428571433</v>
       </c>
-      <c r="D33" s="1"/>
+      <c r="D33" s="23"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="2"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H33">
         <f t="shared" si="11"/>
         <v>1398.6013986013986</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="10">
         <f t="shared" si="10"/>
         <v>715</v>
       </c>
-      <c r="J33" s="12"/>
+      <c r="J33" s="24"/>
       <c r="K33">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L33" s="11">
+      <c r="L33" s="10">
         <v>31</v>
       </c>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>36</v>
       </c>
@@ -13582,28 +13910,34 @@
         <f t="shared" si="9"/>
         <v>694.44444444444446</v>
       </c>
-      <c r="D34" s="1"/>
+      <c r="D34" s="23"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="2"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H34">
         <f t="shared" si="11"/>
         <v>1438.8489208633093</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="10">
         <f t="shared" si="10"/>
         <v>695</v>
       </c>
-      <c r="J34" s="12"/>
+      <c r="J34" s="24"/>
       <c r="K34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L34" s="11">
+      <c r="L34" s="10">
         <v>32</v>
       </c>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>37</v>
       </c>
@@ -13614,28 +13948,34 @@
         <f t="shared" si="9"/>
         <v>675.67567567567573</v>
       </c>
-      <c r="D35" s="1"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="2"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H35">
         <f t="shared" si="11"/>
         <v>1479.2899408284022</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I35" s="10">
         <f t="shared" si="10"/>
         <v>676</v>
       </c>
-      <c r="J35" s="12"/>
+      <c r="J35" s="24"/>
       <c r="K35">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L35" s="11">
+      <c r="L35" s="10">
         <v>33</v>
       </c>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>38</v>
       </c>
@@ -13646,28 +13986,34 @@
         <f t="shared" si="9"/>
         <v>657.8947368421052</v>
       </c>
-      <c r="D36" s="1"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="2"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H36">
         <f t="shared" si="11"/>
         <v>1519.7568389057751</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I36" s="10">
         <f t="shared" si="10"/>
         <v>658</v>
       </c>
-      <c r="J36" s="12"/>
+      <c r="J36" s="24"/>
       <c r="K36">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L36" s="11">
+      <c r="L36" s="10">
         <v>34</v>
       </c>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>39</v>
       </c>
@@ -13678,28 +14024,34 @@
         <f t="shared" si="9"/>
         <v>641.02564102564099</v>
       </c>
-      <c r="D37" s="1"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="2"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H37">
         <f t="shared" si="11"/>
         <v>1557.632398753894</v>
       </c>
-      <c r="I37" s="11">
+      <c r="I37" s="10">
         <f t="shared" si="10"/>
         <v>642</v>
       </c>
-      <c r="J37" s="12"/>
+      <c r="J37" s="24"/>
       <c r="K37">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L37" s="11">
+      <c r="L37" s="10">
         <v>35</v>
       </c>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40</v>
       </c>
@@ -13710,28 +14062,34 @@
         <f t="shared" si="9"/>
         <v>625</v>
       </c>
-      <c r="D38" s="1"/>
+      <c r="D38" s="23"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="2"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H38">
         <f t="shared" si="11"/>
         <v>1600</v>
       </c>
-      <c r="I38" s="11">
+      <c r="I38" s="10">
         <f t="shared" si="10"/>
         <v>625</v>
       </c>
-      <c r="J38" s="12"/>
+      <c r="J38" s="24"/>
       <c r="K38">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L38" s="11">
+      <c r="L38" s="10">
         <v>36</v>
       </c>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>41</v>
       </c>
@@ -13742,28 +14100,34 @@
         <f t="shared" si="9"/>
         <v>609.7560975609756</v>
       </c>
-      <c r="D39" s="1"/>
+      <c r="D39" s="23"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="2"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H39">
         <f t="shared" si="11"/>
         <v>1639.344262295082</v>
       </c>
-      <c r="I39" s="11">
+      <c r="I39" s="10">
         <f t="shared" si="10"/>
         <v>610</v>
       </c>
-      <c r="J39" s="12"/>
+      <c r="J39" s="24"/>
       <c r="K39">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L39" s="11">
+      <c r="L39" s="10">
         <v>37</v>
       </c>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>42</v>
       </c>
@@ -13774,28 +14138,34 @@
         <f t="shared" si="9"/>
         <v>595.2380952380953</v>
       </c>
-      <c r="D40" s="1"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="2"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H40">
         <f t="shared" si="11"/>
         <v>1677.8523489932886</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I40" s="10">
         <f t="shared" si="10"/>
         <v>596</v>
       </c>
-      <c r="J40" s="12"/>
+      <c r="J40" s="24"/>
       <c r="K40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L40" s="11">
+      <c r="L40" s="10">
         <v>38</v>
       </c>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43</v>
       </c>
@@ -13806,34 +14176,34 @@
         <f t="shared" si="9"/>
         <v>581.39534883720933</v>
       </c>
-      <c r="D41" s="1"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="2"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H41">
         <f t="shared" si="11"/>
         <v>1718.2130584192439</v>
       </c>
-      <c r="I41" s="11">
+      <c r="I41" s="10">
         <f t="shared" si="10"/>
         <v>582</v>
       </c>
-      <c r="J41" s="12"/>
+      <c r="J41" s="24"/>
       <c r="K41">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L41" s="11">
+      <c r="L41" s="10">
         <v>39</v>
       </c>
-      <c r="N41" t="s">
-        <v>17</v>
-      </c>
-      <c r="O41" t="s">
-        <v>18</v>
-      </c>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44</v>
       </c>
@@ -13844,38 +14214,34 @@
         <f t="shared" si="9"/>
         <v>568.18181818181813</v>
       </c>
-      <c r="D42" s="1"/>
+      <c r="D42" s="23"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="2"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H42">
         <f t="shared" si="11"/>
         <v>1757.4692442882249</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I42" s="10">
         <f t="shared" si="10"/>
         <v>569</v>
       </c>
-      <c r="J42" s="12"/>
+      <c r="J42" s="24"/>
       <c r="K42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L42" s="11">
+      <c r="L42" s="10">
         <v>40</v>
       </c>
-      <c r="N42">
-        <v>61732</v>
-      </c>
-      <c r="O42">
-        <v>2700</v>
-      </c>
-      <c r="P42">
-        <f>N42/O42</f>
-        <v>22.863703703703703</v>
-      </c>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45</v>
       </c>
@@ -13886,28 +14252,34 @@
         <f t="shared" si="9"/>
         <v>555.55555555555554</v>
       </c>
-      <c r="D43" s="1"/>
+      <c r="D43" s="23"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="2"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H43">
         <f t="shared" si="11"/>
         <v>1798.5611510791368</v>
       </c>
-      <c r="I43" s="11">
+      <c r="I43" s="10">
         <f t="shared" si="10"/>
         <v>556</v>
       </c>
-      <c r="J43" s="12"/>
+      <c r="J43" s="24"/>
       <c r="K43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L43" s="11">
+      <c r="L43" s="10">
         <v>41</v>
       </c>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>46</v>
       </c>
@@ -13918,28 +14290,34 @@
         <f t="shared" si="9"/>
         <v>543.47826086956525</v>
       </c>
-      <c r="D44" s="1"/>
+      <c r="D44" s="23"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="2"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H44">
         <f t="shared" si="11"/>
         <v>1838.2352941176471</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I44" s="10">
         <f t="shared" si="10"/>
         <v>544</v>
       </c>
-      <c r="J44" s="12"/>
+      <c r="J44" s="24"/>
       <c r="K44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L44" s="11">
+      <c r="L44" s="10">
         <v>42</v>
       </c>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>47</v>
       </c>
@@ -13950,28 +14328,34 @@
         <f t="shared" si="9"/>
         <v>531.91489361702133</v>
       </c>
-      <c r="D45" s="1"/>
+      <c r="D45" s="23"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="2"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H45">
         <f t="shared" si="11"/>
         <v>1879.6992481203006</v>
       </c>
-      <c r="I45" s="11">
+      <c r="I45" s="10">
         <f t="shared" si="10"/>
         <v>532</v>
       </c>
-      <c r="J45" s="12"/>
+      <c r="J45" s="24"/>
       <c r="K45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L45" s="11">
+      <c r="L45" s="10">
         <v>43</v>
       </c>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>48</v>
       </c>
@@ -13982,28 +14366,34 @@
         <f t="shared" si="9"/>
         <v>520.83333333333337</v>
       </c>
-      <c r="D46" s="1"/>
+      <c r="D46" s="23"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="2"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H46">
         <f t="shared" si="11"/>
         <v>1919.3857965451054</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I46" s="10">
         <f t="shared" si="10"/>
         <v>521</v>
       </c>
-      <c r="J46" s="12"/>
+      <c r="J46" s="24"/>
       <c r="K46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L46" s="11">
+      <c r="L46" s="10">
         <v>44</v>
       </c>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>49</v>
       </c>
@@ -14014,28 +14404,34 @@
         <f t="shared" si="9"/>
         <v>510.20408163265313</v>
       </c>
-      <c r="D47" s="1"/>
+      <c r="D47" s="23"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="2"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H47">
         <f t="shared" si="11"/>
         <v>1956.9471624266143</v>
       </c>
-      <c r="I47" s="11">
+      <c r="I47" s="10">
         <f t="shared" si="10"/>
         <v>511</v>
       </c>
-      <c r="J47" s="12"/>
+      <c r="J47" s="24"/>
       <c r="K47">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L47" s="11">
+      <c r="L47" s="10">
         <v>45</v>
       </c>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>50</v>
       </c>
@@ -14046,28 +14442,34 @@
         <f t="shared" si="9"/>
         <v>500</v>
       </c>
-      <c r="D48" s="1"/>
+      <c r="D48" s="23"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="2"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H48">
         <f t="shared" si="11"/>
         <v>2000</v>
       </c>
-      <c r="I48" s="11">
+      <c r="I48" s="10">
         <f t="shared" si="10"/>
         <v>500</v>
       </c>
-      <c r="J48" s="12"/>
+      <c r="J48" s="24"/>
       <c r="K48">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L48" s="11">
+      <c r="L48" s="10">
         <v>46</v>
       </c>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>51</v>
       </c>
@@ -14078,28 +14480,34 @@
         <f t="shared" si="9"/>
         <v>490.19607843137254</v>
       </c>
-      <c r="D49" s="1"/>
+      <c r="D49" s="23"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="2"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H49">
         <f t="shared" si="11"/>
         <v>2036.6598778004072</v>
       </c>
-      <c r="I49" s="11">
+      <c r="I49" s="10">
         <f t="shared" si="10"/>
         <v>491</v>
       </c>
-      <c r="J49" s="12"/>
+      <c r="J49" s="24"/>
       <c r="K49">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L49" s="11">
+      <c r="L49" s="10">
         <v>47</v>
       </c>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>52</v>
       </c>
@@ -14110,28 +14518,34 @@
         <f t="shared" si="9"/>
         <v>480.76923076923077</v>
       </c>
-      <c r="D50" s="1"/>
+      <c r="D50" s="23"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="2"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H50">
         <f t="shared" si="11"/>
         <v>2079.002079002079</v>
       </c>
-      <c r="I50" s="11">
+      <c r="I50" s="10">
         <f t="shared" si="10"/>
         <v>481</v>
       </c>
-      <c r="J50" s="12"/>
+      <c r="J50" s="24"/>
       <c r="K50">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L50" s="11">
+      <c r="L50" s="10">
         <v>48</v>
       </c>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>53</v>
       </c>
@@ -14142,28 +14556,34 @@
         <f t="shared" si="9"/>
         <v>471.69811320754718</v>
       </c>
-      <c r="D51" s="1"/>
+      <c r="D51" s="23"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="2"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H51">
         <f t="shared" si="11"/>
         <v>2118.6440677966102</v>
       </c>
-      <c r="I51" s="11">
+      <c r="I51" s="10">
         <f t="shared" si="10"/>
         <v>472</v>
       </c>
-      <c r="J51" s="12"/>
+      <c r="J51" s="24"/>
       <c r="K51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L51" s="11">
+      <c r="L51" s="10">
         <v>49</v>
       </c>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>54</v>
       </c>
@@ -14174,28 +14594,34 @@
         <f t="shared" si="9"/>
         <v>462.96296296296299</v>
       </c>
-      <c r="D52" s="1"/>
+      <c r="D52" s="23"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="2"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H52">
         <f t="shared" si="11"/>
         <v>2159.8272138228945</v>
       </c>
-      <c r="I52" s="11">
+      <c r="I52" s="10">
         <f t="shared" si="10"/>
         <v>463</v>
       </c>
-      <c r="J52" s="12"/>
+      <c r="J52" s="24"/>
       <c r="K52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L52" s="11">
+      <c r="L52" s="10">
         <v>50</v>
       </c>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>55</v>
       </c>
@@ -14206,28 +14632,34 @@
         <f t="shared" si="9"/>
         <v>454.54545454545456</v>
       </c>
-      <c r="D53" s="1"/>
+      <c r="D53" s="23"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="2"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H53">
         <f t="shared" si="11"/>
         <v>2197.802197802198</v>
       </c>
-      <c r="I53" s="11">
+      <c r="I53" s="10">
         <f t="shared" si="10"/>
         <v>455</v>
       </c>
-      <c r="J53" s="12"/>
+      <c r="J53" s="24"/>
       <c r="K53">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L53" s="11">
+      <c r="L53" s="10">
         <v>51</v>
       </c>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>56</v>
       </c>
@@ -14238,28 +14670,34 @@
         <f t="shared" si="9"/>
         <v>446.42857142857139</v>
       </c>
-      <c r="D54" s="1"/>
+      <c r="D54" s="23"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="2"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H54">
         <f t="shared" si="11"/>
         <v>2237.1364653243845</v>
       </c>
-      <c r="I54" s="11">
+      <c r="I54" s="10">
         <f t="shared" si="10"/>
         <v>447</v>
       </c>
-      <c r="J54" s="12"/>
+      <c r="J54" s="24"/>
       <c r="K54">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L54" s="11">
+      <c r="L54" s="10">
         <v>52</v>
       </c>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>57</v>
       </c>
@@ -14270,28 +14708,34 @@
         <f t="shared" si="9"/>
         <v>438.59649122807019</v>
       </c>
-      <c r="D55" s="1"/>
+      <c r="D55" s="23"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="2"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H55">
         <f t="shared" si="11"/>
         <v>2277.9043280182232</v>
       </c>
-      <c r="I55" s="11">
+      <c r="I55" s="10">
         <f t="shared" si="10"/>
         <v>439</v>
       </c>
-      <c r="J55" s="12"/>
+      <c r="J55" s="24"/>
       <c r="K55">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L55" s="11">
+      <c r="L55" s="10">
         <v>53</v>
       </c>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>58</v>
       </c>
@@ -14302,28 +14746,34 @@
         <f t="shared" si="9"/>
         <v>431.0344827586207</v>
       </c>
-      <c r="D56" s="1"/>
+      <c r="D56" s="23"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="2"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H56">
         <f t="shared" si="11"/>
         <v>2314.8148148148148</v>
       </c>
-      <c r="I56" s="11">
+      <c r="I56" s="10">
         <f t="shared" si="10"/>
         <v>432</v>
       </c>
-      <c r="J56" s="12"/>
+      <c r="J56" s="24"/>
       <c r="K56">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L56" s="11">
+      <c r="L56" s="10">
         <v>54</v>
       </c>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>59</v>
       </c>
@@ -14334,28 +14784,34 @@
         <f t="shared" si="9"/>
         <v>423.72881355932202</v>
       </c>
-      <c r="D57" s="1"/>
+      <c r="D57" s="23"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="2"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H57">
         <f t="shared" si="11"/>
         <v>2358.4905660377358</v>
       </c>
-      <c r="I57" s="11">
+      <c r="I57" s="10">
         <f t="shared" si="10"/>
         <v>424</v>
       </c>
-      <c r="J57" s="12"/>
+      <c r="J57" s="24"/>
       <c r="K57">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L57" s="11">
+      <c r="L57" s="10">
         <v>55</v>
       </c>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>60</v>
       </c>
@@ -14366,28 +14822,34 @@
         <f t="shared" si="9"/>
         <v>416.66666666666669</v>
       </c>
-      <c r="D58" s="1"/>
+      <c r="D58" s="23"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="2"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H58">
         <f t="shared" si="11"/>
         <v>2398.0815347721823</v>
       </c>
-      <c r="I58" s="11">
+      <c r="I58" s="10">
         <f t="shared" si="10"/>
         <v>417</v>
       </c>
-      <c r="J58" s="12"/>
+      <c r="J58" s="24"/>
       <c r="K58">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L58" s="11">
+      <c r="L58" s="10">
         <v>56</v>
       </c>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>61</v>
       </c>
@@ -14398,28 +14860,34 @@
         <f t="shared" si="9"/>
         <v>409.8360655737705</v>
       </c>
-      <c r="D59" s="1"/>
+      <c r="D59" s="23"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="2"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H59">
         <f t="shared" si="11"/>
         <v>2439.0243902439024</v>
       </c>
-      <c r="I59" s="11">
+      <c r="I59" s="10">
         <f t="shared" si="10"/>
         <v>410</v>
       </c>
-      <c r="J59" s="12"/>
+      <c r="J59" s="24"/>
       <c r="K59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L59" s="11">
+      <c r="L59" s="10">
         <v>57</v>
       </c>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>62</v>
       </c>
@@ -14430,28 +14898,34 @@
         <f t="shared" si="9"/>
         <v>403.22580645161293</v>
       </c>
-      <c r="D60" s="1"/>
+      <c r="D60" s="23"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="2"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H60">
         <f t="shared" si="11"/>
         <v>2475.2475247524753</v>
       </c>
-      <c r="I60" s="11">
+      <c r="I60" s="10">
         <f t="shared" si="10"/>
         <v>404</v>
       </c>
-      <c r="J60" s="12"/>
+      <c r="J60" s="24"/>
       <c r="K60">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L60" s="11">
+      <c r="L60" s="10">
         <v>58</v>
       </c>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>63</v>
       </c>
@@ -14462,28 +14936,34 @@
         <f t="shared" si="9"/>
         <v>396.82539682539681</v>
       </c>
-      <c r="D61" s="1"/>
+      <c r="D61" s="23"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="2"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H61">
         <f t="shared" si="11"/>
         <v>2518.8916876574308</v>
       </c>
-      <c r="I61" s="11">
+      <c r="I61" s="10">
         <f t="shared" si="10"/>
         <v>397</v>
       </c>
-      <c r="J61" s="12"/>
+      <c r="J61" s="24"/>
       <c r="K61">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L61" s="11">
+      <c r="L61" s="10">
         <v>59</v>
       </c>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>64</v>
       </c>
@@ -14494,28 +14974,34 @@
         <f t="shared" si="9"/>
         <v>390.625</v>
       </c>
-      <c r="D62" s="1"/>
+      <c r="D62" s="23"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="2"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H62">
         <f t="shared" si="11"/>
         <v>2557.5447570332485</v>
       </c>
-      <c r="I62" s="11">
+      <c r="I62" s="10">
         <f t="shared" si="10"/>
         <v>391</v>
       </c>
-      <c r="J62" s="12"/>
+      <c r="J62" s="24"/>
       <c r="K62">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L62" s="11">
+      <c r="L62" s="10">
         <v>60</v>
       </c>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>65</v>
       </c>
@@ -14526,28 +15012,34 @@
         <f t="shared" si="9"/>
         <v>384.61538461538464</v>
       </c>
-      <c r="D63" s="1"/>
+      <c r="D63" s="23"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="2"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H63">
         <f t="shared" si="11"/>
         <v>2597.4025974025976</v>
       </c>
-      <c r="I63" s="11">
+      <c r="I63" s="10">
         <f t="shared" si="10"/>
         <v>385</v>
       </c>
-      <c r="J63" s="12"/>
+      <c r="J63" s="24"/>
       <c r="K63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L63" s="11">
+      <c r="L63" s="10">
         <v>61</v>
       </c>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="19"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>66</v>
       </c>
@@ -14558,28 +15050,34 @@
         <f t="shared" si="9"/>
         <v>378.78787878787881</v>
       </c>
-      <c r="D64" s="1"/>
+      <c r="D64" s="23"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="2"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H64">
         <f t="shared" si="11"/>
         <v>2638.5224274406332</v>
       </c>
-      <c r="I64" s="11">
+      <c r="I64" s="10">
         <f t="shared" si="10"/>
         <v>379</v>
       </c>
-      <c r="J64" s="12"/>
+      <c r="J64" s="24"/>
       <c r="K64">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L64" s="11">
+      <c r="L64" s="10">
         <v>62</v>
       </c>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="19"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>67</v>
       </c>
@@ -14590,28 +15088,34 @@
         <f t="shared" ref="C65:C73" si="12">1/B65*1000000</f>
         <v>373.13432835820896</v>
       </c>
-      <c r="D65" s="1"/>
+      <c r="D65" s="23"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="2"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H65">
         <f t="shared" si="11"/>
         <v>2673.79679144385</v>
       </c>
-      <c r="I65" s="11">
+      <c r="I65" s="10">
         <f t="shared" si="10"/>
         <v>374</v>
       </c>
-      <c r="J65" s="12"/>
+      <c r="J65" s="24"/>
       <c r="K65">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L65" s="11">
+      <c r="L65" s="10">
         <v>63</v>
       </c>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="19"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>68</v>
       </c>
@@ -14622,28 +15126,34 @@
         <f t="shared" si="12"/>
         <v>367.64705882352939</v>
       </c>
-      <c r="D66" s="1"/>
+      <c r="D66" s="23"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="2"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H66">
         <f t="shared" si="11"/>
         <v>2717.391304347826</v>
       </c>
-      <c r="I66" s="11">
+      <c r="I66" s="10">
         <f t="shared" si="10"/>
         <v>368</v>
       </c>
-      <c r="J66" s="12"/>
+      <c r="J66" s="24"/>
       <c r="K66">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L66" s="11">
+      <c r="L66" s="10">
         <v>64</v>
       </c>
+      <c r="M66" s="19"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="19"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>69</v>
       </c>
@@ -14654,28 +15164,34 @@
         <f t="shared" si="12"/>
         <v>362.31884057971013</v>
       </c>
-      <c r="D67" s="1"/>
+      <c r="D67" s="23"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="2"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="2" t="e">
+        <f t="shared" ref="G67:G71" si="13">ROUNDUP(D67/F67,0)+1</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H67">
         <f t="shared" si="11"/>
         <v>2754.8209366391184</v>
       </c>
-      <c r="I67" s="11">
+      <c r="I67" s="10">
         <f t="shared" si="10"/>
         <v>363</v>
       </c>
-      <c r="J67" s="12"/>
+      <c r="J67" s="24"/>
       <c r="K67">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L67" s="11">
+      <c r="L67" s="10">
         <v>65</v>
       </c>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="19"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>70</v>
       </c>
@@ -14686,28 +15202,34 @@
         <f t="shared" si="12"/>
         <v>357.14285714285717</v>
       </c>
-      <c r="D68" s="1"/>
+      <c r="D68" s="23"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="2"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="2" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H68">
         <f t="shared" si="11"/>
         <v>2793.2960893854752</v>
       </c>
-      <c r="I68" s="11">
-        <f t="shared" ref="I68:I73" si="13">ROUNDUP(C68,0)</f>
+      <c r="I68" s="10">
+        <f t="shared" ref="I68:I73" si="14">ROUNDUP(C68,0)</f>
         <v>358</v>
       </c>
-      <c r="J68" s="12"/>
+      <c r="J68" s="24"/>
       <c r="K68">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L68" s="11">
+      <c r="L68" s="10">
         <v>66</v>
       </c>
+      <c r="M68" s="19"/>
+      <c r="N68" s="19"/>
+      <c r="O68" s="19"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>71</v>
       </c>
@@ -14718,28 +15240,34 @@
         <f t="shared" si="12"/>
         <v>352.11267605633805</v>
       </c>
-      <c r="D69" s="1"/>
+      <c r="D69" s="23"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="2"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="2" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H69">
-        <f t="shared" ref="H69:H73" si="14">1/I69*1000000</f>
+        <f t="shared" ref="H69:H73" si="15">1/I69*1000000</f>
         <v>2832.8611898016998</v>
       </c>
-      <c r="I69" s="11">
-        <f t="shared" si="13"/>
+      <c r="I69" s="10">
+        <f t="shared" si="14"/>
         <v>353</v>
       </c>
-      <c r="J69" s="12"/>
+      <c r="J69" s="24"/>
       <c r="K69">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L69" s="11">
+      <c r="L69" s="10">
         <v>67</v>
       </c>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="19"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>72</v>
       </c>
@@ -14750,28 +15278,34 @@
         <f t="shared" si="12"/>
         <v>347.22222222222223</v>
       </c>
-      <c r="D70" s="1"/>
+      <c r="D70" s="23"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="2"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="2" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H70">
+        <f t="shared" si="15"/>
+        <v>2873.5632183908046</v>
+      </c>
+      <c r="I70" s="10">
         <f t="shared" si="14"/>
-        <v>2873.5632183908046</v>
-      </c>
-      <c r="I70" s="11">
-        <f t="shared" si="13"/>
         <v>348</v>
       </c>
-      <c r="J70" s="12"/>
+      <c r="J70" s="24"/>
       <c r="K70">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L70" s="11">
+      <c r="L70" s="10">
         <v>68</v>
       </c>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+      <c r="O70" s="19"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>73</v>
       </c>
@@ -14782,28 +15316,34 @@
         <f t="shared" si="12"/>
         <v>342.46575342465752</v>
       </c>
-      <c r="D71" s="1"/>
+      <c r="D71" s="23"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="2"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="2" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H71">
+        <f t="shared" si="15"/>
+        <v>2915.4518950437318</v>
+      </c>
+      <c r="I71" s="10">
         <f t="shared" si="14"/>
-        <v>2915.4518950437318</v>
-      </c>
-      <c r="I71" s="11">
-        <f t="shared" si="13"/>
         <v>343</v>
       </c>
-      <c r="J71" s="12"/>
+      <c r="J71" s="24"/>
       <c r="K71">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L71" s="11">
+      <c r="L71" s="10">
         <v>69</v>
       </c>
+      <c r="M71" s="19"/>
+      <c r="N71" s="19"/>
+      <c r="O71" s="19"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>74</v>
       </c>
@@ -14814,83 +15354,194 @@
         <f t="shared" si="12"/>
         <v>337.83783783783787</v>
       </c>
-      <c r="D72" s="1"/>
+      <c r="D72" s="23"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="2"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="2" t="e">
+        <f>ROUNDUP(D72/F72,0)+1</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H72">
+        <f t="shared" si="15"/>
+        <v>2958.5798816568044</v>
+      </c>
+      <c r="I72" s="10">
         <f t="shared" si="14"/>
-        <v>2958.5798816568044</v>
-      </c>
-      <c r="I72" s="11">
-        <f t="shared" si="13"/>
         <v>338</v>
       </c>
-      <c r="J72" s="12"/>
+      <c r="J72" s="24"/>
       <c r="K72">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L72" s="11">
+      <c r="L72" s="10">
         <v>70</v>
       </c>
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="19"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
+    <row r="73" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="25">
         <v>75</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="25">
         <v>3000</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="25">
         <f t="shared" si="12"/>
         <v>333.33333333333331</v>
       </c>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="2"/>
-      <c r="H73">
+      <c r="D73" s="26">
+        <v>20010.608</v>
+      </c>
+      <c r="E73" s="27">
+        <f>G73*F73+J73</f>
+        <v>24401.038</v>
+      </c>
+      <c r="F73" s="26">
+        <v>2705.4</v>
+      </c>
+      <c r="G73" s="28">
+        <f>ROUNDUP(D73/F73,0)+1</f>
+        <v>9</v>
+      </c>
+      <c r="H73" s="27">
+        <f t="shared" si="15"/>
+        <v>2994.0119760479042</v>
+      </c>
+      <c r="I73" s="29">
         <f t="shared" si="14"/>
-        <v>2994.0119760479042</v>
-      </c>
-      <c r="I73" s="11">
-        <f t="shared" si="13"/>
         <v>334</v>
       </c>
-      <c r="J73" s="12"/>
-      <c r="K73">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L73" s="11">
+      <c r="J73" s="30">
+        <v>52.438000000000002</v>
+      </c>
+      <c r="K73" s="27">
+        <f>F73/1000</f>
+        <v>2.7054</v>
+      </c>
+      <c r="L73" s="29">
         <v>71</v>
       </c>
+      <c r="M73" s="32">
+        <v>3604</v>
+      </c>
+      <c r="N73" s="33">
+        <v>46</v>
+      </c>
+      <c r="O73" s="31">
+        <v>1602207</v>
+      </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
+      <c r="G74">
+        <v>9</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J74" s="11">
+        <v>3896</v>
+      </c>
+      <c r="K74" s="11">
+        <v>4304</v>
+      </c>
+      <c r="L74" s="5">
+        <v>46</v>
+      </c>
+      <c r="M74" s="5">
+        <v>46</v>
+      </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
+      <c r="G75">
+        <v>10</v>
+      </c>
+      <c r="I75" s="5"/>
+      <c r="J75" s="11">
+        <v>3969</v>
+      </c>
+      <c r="K75" s="11">
+        <v>4549</v>
+      </c>
+      <c r="L75" s="5">
+        <v>46</v>
+      </c>
+      <c r="M75" s="5">
+        <v>46</v>
+      </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
+      <c r="G76">
+        <v>11</v>
+      </c>
+      <c r="I76" s="5"/>
+      <c r="J76" s="11">
+        <v>4577</v>
+      </c>
+      <c r="K76" s="11">
+        <v>5312</v>
+      </c>
+      <c r="L76" s="5">
+        <v>46</v>
+      </c>
+      <c r="M76" s="5">
+        <v>46</v>
+      </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
+      <c r="G77">
+        <v>12</v>
+      </c>
+      <c r="I77" s="5"/>
+      <c r="J77" s="11">
+        <v>5163</v>
+      </c>
+      <c r="K77" s="11">
+        <v>6065</v>
+      </c>
+      <c r="L77" s="5">
+        <v>46</v>
+      </c>
+      <c r="M77" s="5">
+        <v>46</v>
+      </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
+      <c r="G78">
+        <v>13</v>
+      </c>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <v>14</v>
+      </c>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -14900,11 +15551,427 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786AA61C-20CB-4AC1-8D72-07DC490D5A64}">
+  <dimension ref="E1:N22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E1" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="58"/>
+    </row>
+    <row r="2" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E2" s="59"/>
+      <c r="F2" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E3" s="42">
+        <v>9</v>
+      </c>
+      <c r="F3" s="34">
+        <v>3896</v>
+      </c>
+      <c r="G3" s="35">
+        <v>46</v>
+      </c>
+      <c r="H3" s="34">
+        <v>4304</v>
+      </c>
+      <c r="I3" s="35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E4" s="43">
+        <v>10</v>
+      </c>
+      <c r="F4" s="36">
+        <v>3969</v>
+      </c>
+      <c r="G4" s="37">
+        <v>46</v>
+      </c>
+      <c r="H4" s="36">
+        <v>4549</v>
+      </c>
+      <c r="I4" s="37">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E5" s="43">
+        <v>11</v>
+      </c>
+      <c r="F5" s="36">
+        <v>4577</v>
+      </c>
+      <c r="G5" s="37">
+        <v>46</v>
+      </c>
+      <c r="H5" s="36">
+        <v>5312</v>
+      </c>
+      <c r="I5" s="37">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E6" s="43">
+        <v>12</v>
+      </c>
+      <c r="F6" s="36">
+        <v>5163</v>
+      </c>
+      <c r="G6" s="37">
+        <v>46</v>
+      </c>
+      <c r="H6" s="36">
+        <v>6065</v>
+      </c>
+      <c r="I6" s="37">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E7" s="43">
+        <v>13</v>
+      </c>
+      <c r="F7" s="36">
+        <v>5887</v>
+      </c>
+      <c r="G7" s="37">
+        <v>46</v>
+      </c>
+      <c r="H7" s="36">
+        <v>4912</v>
+      </c>
+      <c r="I7" s="37">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E8" s="43">
+        <v>14</v>
+      </c>
+      <c r="F8" s="36">
+        <v>5084</v>
+      </c>
+      <c r="G8" s="37">
+        <v>84</v>
+      </c>
+      <c r="H8" s="36">
+        <v>5456</v>
+      </c>
+      <c r="I8" s="37">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E9" s="43">
+        <v>15</v>
+      </c>
+      <c r="F9" s="36">
+        <v>5548</v>
+      </c>
+      <c r="G9" s="37">
+        <v>90</v>
+      </c>
+      <c r="H9" s="36">
+        <v>5933</v>
+      </c>
+      <c r="I9" s="37">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E10" s="43">
+        <v>16</v>
+      </c>
+      <c r="F10" s="36">
+        <v>6073</v>
+      </c>
+      <c r="G10" s="37">
+        <v>96</v>
+      </c>
+      <c r="H10" s="36">
+        <v>6499</v>
+      </c>
+      <c r="I10" s="37">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E11" s="43">
+        <v>17</v>
+      </c>
+      <c r="F11" s="36">
+        <v>6601</v>
+      </c>
+      <c r="G11" s="37">
+        <v>102</v>
+      </c>
+      <c r="H11" s="36">
+        <v>7032</v>
+      </c>
+      <c r="I11" s="37">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E12" s="43">
+        <v>18</v>
+      </c>
+      <c r="F12" s="36">
+        <v>7082</v>
+      </c>
+      <c r="G12" s="37">
+        <v>108</v>
+      </c>
+      <c r="H12" s="36">
+        <v>7153</v>
+      </c>
+      <c r="I12" s="37">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E13" s="43">
+        <v>19</v>
+      </c>
+      <c r="F13" s="36">
+        <v>7635</v>
+      </c>
+      <c r="G13" s="37">
+        <v>112</v>
+      </c>
+      <c r="H13" s="36">
+        <v>8146</v>
+      </c>
+      <c r="I13" s="37">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="5:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="43">
+        <v>20</v>
+      </c>
+      <c r="F14" s="36">
+        <v>8333</v>
+      </c>
+      <c r="G14" s="37">
+        <v>112</v>
+      </c>
+      <c r="H14" s="36">
+        <v>9108</v>
+      </c>
+      <c r="I14" s="37">
+        <v>112</v>
+      </c>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+    </row>
+    <row r="15" spans="5:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="43">
+        <v>21</v>
+      </c>
+      <c r="F15" s="36">
+        <v>107864</v>
+      </c>
+      <c r="G15" s="37">
+        <v>126</v>
+      </c>
+      <c r="H15" s="36">
+        <v>31051</v>
+      </c>
+      <c r="I15" s="48">
+        <v>126</v>
+      </c>
+      <c r="J15" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="52"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+    </row>
+    <row r="16" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E16" s="43">
+        <v>22</v>
+      </c>
+      <c r="F16" s="36">
+        <v>148537</v>
+      </c>
+      <c r="G16" s="37">
+        <v>132</v>
+      </c>
+      <c r="H16" s="36">
+        <v>31609</v>
+      </c>
+      <c r="I16" s="48">
+        <v>132</v>
+      </c>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+    </row>
+    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E17" s="43">
+        <v>23</v>
+      </c>
+      <c r="F17" s="36">
+        <v>148874</v>
+      </c>
+      <c r="G17" s="37">
+        <v>138</v>
+      </c>
+      <c r="H17" s="36">
+        <v>32082</v>
+      </c>
+      <c r="I17" s="48">
+        <v>138</v>
+      </c>
+      <c r="J17" s="53"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+    </row>
+    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E18" s="43">
+        <v>24</v>
+      </c>
+      <c r="F18" s="36">
+        <v>149182</v>
+      </c>
+      <c r="G18" s="37">
+        <v>144</v>
+      </c>
+      <c r="H18" s="36">
+        <v>31572</v>
+      </c>
+      <c r="I18" s="48">
+        <v>144</v>
+      </c>
+      <c r="J18" s="53"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+    </row>
+    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E19" s="43">
+        <v>25</v>
+      </c>
+      <c r="F19" s="36">
+        <v>149573</v>
+      </c>
+      <c r="G19" s="37">
+        <v>150</v>
+      </c>
+      <c r="H19" s="36">
+        <v>32143</v>
+      </c>
+      <c r="I19" s="48">
+        <v>150</v>
+      </c>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+    </row>
+    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E20" s="44"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+    </row>
+    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E21" s="45">
+        <v>140</v>
+      </c>
+      <c r="F21" s="40">
+        <v>120821</v>
+      </c>
+      <c r="G21" s="41">
+        <v>532</v>
+      </c>
+      <c r="H21" s="40">
+        <v>93159</v>
+      </c>
+      <c r="I21" s="50">
+        <v>532</v>
+      </c>
+      <c r="J21" s="55"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+    </row>
+    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E22" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="J15:K21"/>
+    <mergeCell ref="E22:K22"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65BA3D75-590D-4E01-9070-2E13EF8BFE53}">
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D23"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14922,22 +15989,22 @@
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H1" t="s">
@@ -14948,28 +16015,28 @@
       <c r="A2" s="1">
         <v>160</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>147</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>389.64375000000001</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>101665</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>532</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>0</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>16.212379662449301</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>373.5625</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="10">
         <f>C2-H2</f>
         <v>16.081250000000011</v>
       </c>
@@ -14978,732 +16045,732 @@
       <c r="A3" s="1">
         <v>200</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>115</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>311.73500000000001</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>76576</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>532</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>6.1994799217063896</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>302.48500000000001</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <f t="shared" ref="I3:I23" si="0">C3-H3</f>
         <v>9.25</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>240</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>96</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>260.09997300000003</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>61612</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>532</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>2</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>6.4429156459154902</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>253.89947700000002</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <f t="shared" si="0"/>
         <v>6.2004960000000153</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>280</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>83</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>224.80381999999997</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>60352</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>400</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>3</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>3.4009593119310302</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>218.81000399999996</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <f t="shared" si="0"/>
         <v>5.9938160000000096</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>320</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>73</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>197.62812500000001</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>52500</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>400</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>4</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>2.4363095817896099</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>191.77187499999999</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <f t="shared" si="0"/>
         <v>5.8562500000000171</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>360</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>65</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>175.94463000000002</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>47234</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>390</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>5</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>2.1643141369056398</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>170.18305800000002</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <f t="shared" si="0"/>
         <v>5.761572000000001</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>400</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>59</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>159.66249999999999</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>47750</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>308</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>6</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>2.1967323589023602</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>153.9675</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <f t="shared" si="0"/>
         <v>5.6949999999999932</v>
       </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>440</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>53</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>143.42402699999997</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>43048</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>308</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>7</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>2.15821763569675</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>140.48276499999997</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <f t="shared" si="0"/>
         <v>2.9412619999999947</v>
       </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>480</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>49</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>132.57285399999998</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>41088</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>294</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>8</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>2.19944143780836</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>129.70607600000002</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <f t="shared" si="0"/>
         <v>2.8667779999999539</v>
       </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>520</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>45</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>121.62181199999999</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>39557</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>270</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>9</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>2.18471846914899</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>118.92051599999999</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="10">
         <f t="shared" si="0"/>
         <v>2.7012959999999993</v>
       </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>560</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>42</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>113.48065399999999</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>39564</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>232</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>10</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>2.1986445153728802</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>110.78022199999998</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="10">
         <f t="shared" si="0"/>
         <v>2.7004320000000064</v>
       </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>600</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>40</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>108.083279</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>38043</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>232</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>11</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <v>2.20296187623845</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>102.68219900000001</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="10">
         <f t="shared" si="0"/>
         <v>5.4010799999999932</v>
       </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>640</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>37</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>99.992925</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>36477</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>222</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>12</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>2.1994092317612699</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>97.292061000000004</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="10">
         <f t="shared" si="0"/>
         <v>2.7008639999999957</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>680</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>35</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>94.586770999999999</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>35712</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>210</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>13</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <v>2.20021136956119</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <v>91.886015</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="10">
         <f t="shared" si="0"/>
         <v>2.7007559999999984</v>
       </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>720</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>33</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>89.166854999999998</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>34946</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>198</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>14</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <v>2.2008451582039701</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <v>86.466639000000001</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="10">
         <f t="shared" si="0"/>
         <v>2.7002159999999975</v>
       </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
     </row>
     <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>760</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>32</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>86.473043999999987</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>34554</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>192</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>15</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <v>2.2006481796600599</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <v>83.772611999999995</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="10">
         <f t="shared" si="0"/>
         <v>2.7004319999999922</v>
       </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>800</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>30</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>81.058750000000003</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>35743</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>180</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <v>78.358750000000001</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="10">
         <f t="shared" si="0"/>
         <v>2.7000000000000028</v>
       </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>840</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>29</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>78.392810999999995</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>35177</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>174</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>75.691622999999993</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="10">
         <f t="shared" si="0"/>
         <v>2.7011880000000019</v>
       </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>880</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>27</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>72.937412999999992</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>33993</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>162</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <v>72.998811000000003</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="10">
         <f t="shared" si="0"/>
         <v>-6.1398000000011166E-2</v>
       </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>920</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>26</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>70.260419000000013</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>33389</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>156</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="5">
         <v>70.260419000000013</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>960</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>25</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>67.631009999999989</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>33649</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>150</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <v>67.578910000000008</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="10">
         <f t="shared" si="0"/>
         <v>5.2099999999981605E-2</v>
       </c>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1000</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>25</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>64.954999999999998</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>33649</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>150</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="5">
         <v>64.856999999999999</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="10">
         <f t="shared" si="0"/>
         <v>9.7999999999998977E-2</v>
       </c>
@@ -15715,7 +16782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A778130-3D55-4681-BC9B-C0CFD0D72F17}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -15731,7 +16798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E62CD7-0F75-45A2-BA1A-AFAB0AA7A42B}">
   <dimension ref="A1"/>
   <sheetViews>
